--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.556265916791915</v>
+        <v>2.556265916792029</v>
       </c>
       <c r="C2">
-        <v>0.4520730086900357</v>
+        <v>0.4520730086899789</v>
       </c>
       <c r="D2">
-        <v>0.02683940515075633</v>
+        <v>0.02683940515085226</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>2.062338873123693</v>
       </c>
       <c r="G2">
-        <v>1.646322715178641</v>
+        <v>1.646322715178655</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2827013326291308</v>
+        <v>0.2827013326291095</v>
       </c>
       <c r="L2">
-        <v>0.8643590045974321</v>
+        <v>0.8643590045974179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,10 +453,10 @@
         <v>2.204012244458511</v>
       </c>
       <c r="C3">
-        <v>0.3983930565915728</v>
+        <v>0.3983930565917717</v>
       </c>
       <c r="D3">
-        <v>0.02700502637187441</v>
+        <v>0.0270050263719952</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.829885473861665</v>
       </c>
       <c r="G3">
-        <v>1.46642001254753</v>
+        <v>1.466420012547559</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2452408707245723</v>
+        <v>0.2452408707245652</v>
       </c>
       <c r="L3">
-        <v>0.7448195610202717</v>
+        <v>0.7448195610202859</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.990604013926912</v>
+        <v>1.990604013926998</v>
       </c>
       <c r="C4">
-        <v>0.3656567508549529</v>
+        <v>0.3656567508552087</v>
       </c>
       <c r="D4">
-        <v>0.02716781220918563</v>
+        <v>0.02716781220926379</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.691593185974625</v>
       </c>
       <c r="G4">
-        <v>1.359599602713487</v>
+        <v>1.359599602713502</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2228467031950387</v>
+        <v>0.222846703195053</v>
       </c>
       <c r="L4">
-        <v>0.6728145198294371</v>
+        <v>0.6728145198294584</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904244981822131</v>
+        <v>1.90424498182216</v>
       </c>
       <c r="C5">
-        <v>0.352356968577368</v>
+        <v>0.3523569685773396</v>
       </c>
       <c r="D5">
-        <v>0.02724798084139479</v>
+        <v>0.02724798084139124</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2138535563500952</v>
+        <v>0.2138535563501094</v>
       </c>
       <c r="L5">
-        <v>0.6437722109541042</v>
+        <v>0.6437722109540971</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.889938546970967</v>
+        <v>1.889938546970797</v>
       </c>
       <c r="C6">
-        <v>0.3501505683675674</v>
+        <v>0.3501505683674253</v>
       </c>
       <c r="D6">
-        <v>0.02726208637839633</v>
+        <v>0.02726208637840699</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>1.627089365606011</v>
       </c>
       <c r="G6">
-        <v>1.309835051327582</v>
+        <v>1.309835051327568</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2123677158688295</v>
+        <v>0.212367715868794</v>
       </c>
       <c r="L6">
-        <v>0.6389665242750056</v>
+        <v>0.6389665242750127</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.989437036732852</v>
+        <v>1.989437036733051</v>
       </c>
       <c r="C7">
-        <v>0.3654772408451663</v>
+        <v>0.3654772408453368</v>
       </c>
       <c r="D7">
-        <v>0.02716883929610248</v>
+        <v>0.02716883929612735</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.690842650110667</v>
+        <v>1.690842650110639</v>
       </c>
       <c r="G7">
-        <v>1.359020337857118</v>
+        <v>1.359020337857103</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2227249063276275</v>
+        <v>0.2227249063276346</v>
       </c>
       <c r="L7">
-        <v>0.6724216917015013</v>
+        <v>0.6724216917015156</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.434137887365978</v>
+        <v>2.434137887366205</v>
       </c>
       <c r="C8">
-        <v>0.4335078786605209</v>
+        <v>0.433507878660464</v>
       </c>
       <c r="D8">
-        <v>0.0268828596577606</v>
+        <v>0.02688285965798798</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.981188744996672</v>
       </c>
       <c r="G8">
-        <v>1.583471845089292</v>
+        <v>1.583471845089306</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.269646462494407</v>
+        <v>0.2696464624943786</v>
       </c>
       <c r="L8">
-        <v>0.8228212487888626</v>
+        <v>0.822821248788884</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.334944837122293</v>
+        <v>3.334944837122464</v>
       </c>
       <c r="C9">
-        <v>0.5694869272213339</v>
+        <v>0.569486927221277</v>
       </c>
       <c r="D9">
-        <v>0.02688510357991092</v>
+        <v>0.02688510358000684</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.592108493909876</v>
+        <v>2.592108493909905</v>
       </c>
       <c r="G9">
-        <v>2.057681349316837</v>
+        <v>2.057681349316866</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.3674821786287126</v>
       </c>
       <c r="L9">
-        <v>1.131330395083786</v>
+        <v>1.131330395083793</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.023691020208844</v>
+        <v>4.023691020208787</v>
       </c>
       <c r="C10">
-        <v>0.6722346242199535</v>
+        <v>0.6722346242194703</v>
       </c>
       <c r="D10">
-        <v>0.02735622534701321</v>
+        <v>0.02735622534702387</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.076313574103153</v>
+        <v>3.076313574103125</v>
       </c>
       <c r="G10">
         <v>2.435010513385194</v>
@@ -746,7 +746,7 @@
         <v>0.4445161764014571</v>
       </c>
       <c r="L10">
-        <v>1.370279360223208</v>
+        <v>1.370279360223222</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.345332369724133</v>
+        <v>4.345332369724304</v>
       </c>
       <c r="C11">
-        <v>0.7199327394791055</v>
+        <v>0.7199327394795603</v>
       </c>
       <c r="D11">
-        <v>0.02770667308475083</v>
+        <v>0.02770667308487162</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.306892686722534</v>
+        <v>3.306892686722477</v>
       </c>
       <c r="G11">
-        <v>2.615085402876417</v>
+        <v>2.615085402876403</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4811045141756551</v>
+        <v>0.4811045141756267</v>
       </c>
       <c r="L11">
-        <v>1.482708138264471</v>
+        <v>1.482708138264499</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>4.468567956035884</v>
       </c>
       <c r="C12">
-        <v>0.7381657123857792</v>
+        <v>0.7381657123860066</v>
       </c>
       <c r="D12">
-        <v>0.02786240930684869</v>
+        <v>0.02786240930684514</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.395946121726809</v>
+        <v>3.395946121726837</v>
       </c>
       <c r="G12">
         <v>2.684695741839064</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.441958860196735</v>
+        <v>4.441958860196678</v>
       </c>
       <c r="C13">
-        <v>0.7342307415135849</v>
+        <v>0.7342307415136133</v>
       </c>
       <c r="D13">
-        <v>0.02782778311554068</v>
+        <v>0.02782778311546608</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.376685097902282</v>
+        <v>3.37668509790214</v>
       </c>
       <c r="G13">
-        <v>2.6696371126516</v>
+        <v>2.669637112651543</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4921703596428628</v>
+        <v>0.4921703596427989</v>
       </c>
       <c r="L13">
-        <v>1.516584894667901</v>
+        <v>1.516584894667844</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355440737478602</v>
+        <v>4.355440737478716</v>
       </c>
       <c r="C14">
-        <v>0.7214291481444661</v>
+        <v>0.7214291481442103</v>
       </c>
       <c r="D14">
-        <v>0.02771900216345813</v>
+        <v>0.02771900216370682</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.314182735586655</v>
+        <v>3.314182735586684</v>
       </c>
       <c r="G14">
-        <v>2.620782528221866</v>
+        <v>2.620782528221895</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.482260551675175</v>
+        <v>0.4822605516752176</v>
       </c>
       <c r="L14">
-        <v>1.486249906946966</v>
+        <v>1.486249906946981</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302640738960179</v>
+        <v>4.302640738960122</v>
       </c>
       <c r="C15">
-        <v>0.7136111031048245</v>
+        <v>0.7136111031049381</v>
       </c>
       <c r="D15">
         <v>0.02765548230966886</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.276132802877385</v>
+        <v>3.276132802877356</v>
       </c>
       <c r="G15">
-        <v>2.591049297729469</v>
+        <v>2.591049297729427</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4762262251895564</v>
+        <v>0.4762262251895706</v>
       </c>
       <c r="L15">
-        <v>1.467755470065072</v>
+        <v>1.467755470065086</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.002858260730306</v>
+        <v>4.00285826073025</v>
       </c>
       <c r="C16">
-        <v>0.6691394216156823</v>
+        <v>0.6691394216159097</v>
       </c>
       <c r="D16">
-        <v>0.02733634431587006</v>
+        <v>0.02733634431584164</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.061473184339036</v>
+        <v>3.061473184339121</v>
       </c>
       <c r="G16">
         <v>2.423428871352229</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4421595593893031</v>
+        <v>0.4421595593892818</v>
       </c>
       <c r="L16">
-        <v>1.363015406546737</v>
+        <v>1.363015406546708</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.821244041441105</v>
+        <v>3.821244041441219</v>
       </c>
       <c r="C17">
-        <v>0.6421247427126389</v>
+        <v>0.6421247427128378</v>
       </c>
       <c r="D17">
         <v>0.02717771153044879</v>
@@ -997,7 +997,7 @@
         <v>2.932598002853325</v>
       </c>
       <c r="G17">
-        <v>2.322896237007114</v>
+        <v>2.322896237007129</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4216842759322574</v>
+        <v>0.4216842759322788</v>
       </c>
       <c r="L17">
-        <v>1.299784815708549</v>
+        <v>1.299784815708534</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>3.717551921561153</v>
       </c>
       <c r="C18">
-        <v>0.6266745085428624</v>
+        <v>0.6266745085430898</v>
       </c>
       <c r="D18">
-        <v>0.02709904588312995</v>
+        <v>0.02709904588325074</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.859425732042411</v>
+        <v>2.859425732042382</v>
       </c>
       <c r="G18">
         <v>2.265851521851872</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4100500363181396</v>
+        <v>0.4100500363181538</v>
       </c>
       <c r="L18">
         <v>1.263760301197053</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.68256863702851</v>
+        <v>3.682568637028623</v>
       </c>
       <c r="C19">
-        <v>0.6214574936299471</v>
+        <v>0.6214574936296913</v>
       </c>
       <c r="D19">
-        <v>0.02707447486672976</v>
+        <v>0.02707447486687542</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>2.834807396756133</v>
       </c>
       <c r="G19">
-        <v>2.246665087824624</v>
+        <v>2.246665087824582</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4061342039103124</v>
+        <v>0.4061342039103337</v>
       </c>
       <c r="L19">
-        <v>1.25161920773327</v>
+        <v>1.251619207733285</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.840496118418741</v>
+        <v>3.840496118418628</v>
       </c>
       <c r="C20">
-        <v>0.6449911811368452</v>
+        <v>0.6449911811363904</v>
       </c>
       <c r="D20">
-        <v>0.0271932735232987</v>
+        <v>0.02719327352333423</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.946216586740519</v>
+        <v>2.946216586740462</v>
       </c>
       <c r="G20">
-        <v>2.333516070715078</v>
+        <v>2.333516070715064</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4238488637905036</v>
+        <v>0.4238488637904894</v>
       </c>
       <c r="L20">
         <v>1.306479512705636</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.380812122261716</v>
+        <v>4.380812122261432</v>
       </c>
       <c r="C21">
-        <v>0.725184364377867</v>
+        <v>0.7251843643775828</v>
       </c>
       <c r="D21">
-        <v>0.02775029829030018</v>
+        <v>0.02775029829053111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.332491800946798</v>
+        <v>3.332491800946855</v>
       </c>
       <c r="G21">
-        <v>2.635091956033463</v>
+        <v>2.635091956033492</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4851637753384139</v>
+        <v>0.4851637753384566</v>
       </c>
       <c r="L21">
         <v>1.495141770104908</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742453795893539</v>
+        <v>4.742453795893596</v>
       </c>
       <c r="C22">
-        <v>0.7786095803450053</v>
+        <v>0.7786095803455453</v>
       </c>
       <c r="D22">
-        <v>0.02825063244892689</v>
+        <v>0.02825063244905479</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.595223042743896</v>
+        <v>3.595223042743868</v>
       </c>
       <c r="G22">
-        <v>2.840585377755701</v>
+        <v>2.840585377755673</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5267991731520141</v>
+        <v>0.5267991731520212</v>
       </c>
       <c r="L22">
-        <v>1.622231091528732</v>
+        <v>1.62223109152869</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.548571050196983</v>
+        <v>4.54857105019704</v>
       </c>
       <c r="C23">
         <v>0.7499904389929952</v>
       </c>
       <c r="D23">
-        <v>0.02796982256354141</v>
+        <v>0.02796982256346325</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.453963485351835</v>
+        <v>3.453963485351807</v>
       </c>
       <c r="G23">
-        <v>2.730064291904313</v>
+        <v>2.73006429190427</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5044190678766327</v>
+        <v>0.5044190678765901</v>
       </c>
       <c r="L23">
         <v>1.554016215182003</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831790028428543</v>
+        <v>3.831790028428657</v>
       </c>
       <c r="C24">
-        <v>0.6436950148759593</v>
+        <v>0.6436950148757603</v>
       </c>
       <c r="D24">
-        <v>0.02718619915766496</v>
+        <v>0.02718619915776088</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.940056778833963</v>
+        <v>2.940056778833991</v>
       </c>
       <c r="G24">
         <v>2.328712514315242</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4228698291081372</v>
+        <v>0.4228698291081514</v>
       </c>
       <c r="L24">
-        <v>1.303451827400721</v>
+        <v>1.303451827400735</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>3.087275303355625</v>
       </c>
       <c r="C25">
-        <v>0.5323039776187954</v>
+        <v>0.5323039776185681</v>
       </c>
       <c r="D25">
-        <v>0.02681228911692557</v>
+        <v>0.02681228911680478</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.421428220198621</v>
+        <v>2.421428220198663</v>
       </c>
       <c r="G25">
         <v>1.924966246109278</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.340238538833745</v>
+        <v>0.3402385388337734</v>
       </c>
       <c r="L25">
-        <v>1.046033650141901</v>
+        <v>1.046033650141915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.556265916792029</v>
+        <v>2.556265916791915</v>
       </c>
       <c r="C2">
-        <v>0.4520730086899789</v>
+        <v>0.4520730086900357</v>
       </c>
       <c r="D2">
-        <v>0.02683940515085226</v>
+        <v>0.02683940515075633</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>2.062338873123693</v>
       </c>
       <c r="G2">
-        <v>1.646322715178655</v>
+        <v>1.646322715178641</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2827013326291095</v>
+        <v>0.2827013326291308</v>
       </c>
       <c r="L2">
-        <v>0.8643590045974179</v>
+        <v>0.8643590045974321</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,10 +453,10 @@
         <v>2.204012244458511</v>
       </c>
       <c r="C3">
-        <v>0.3983930565917717</v>
+        <v>0.3983930565915728</v>
       </c>
       <c r="D3">
-        <v>0.0270050263719952</v>
+        <v>0.02700502637187441</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.829885473861665</v>
       </c>
       <c r="G3">
-        <v>1.466420012547559</v>
+        <v>1.46642001254753</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2452408707245652</v>
+        <v>0.2452408707245723</v>
       </c>
       <c r="L3">
-        <v>0.7448195610202859</v>
+        <v>0.7448195610202717</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.990604013926998</v>
+        <v>1.990604013926912</v>
       </c>
       <c r="C4">
-        <v>0.3656567508552087</v>
+        <v>0.3656567508549529</v>
       </c>
       <c r="D4">
-        <v>0.02716781220926379</v>
+        <v>0.02716781220918563</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.691593185974625</v>
       </c>
       <c r="G4">
-        <v>1.359599602713502</v>
+        <v>1.359599602713487</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.222846703195053</v>
+        <v>0.2228467031950387</v>
       </c>
       <c r="L4">
-        <v>0.6728145198294584</v>
+        <v>0.6728145198294371</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90424498182216</v>
+        <v>1.904244981822131</v>
       </c>
       <c r="C5">
-        <v>0.3523569685773396</v>
+        <v>0.352356968577368</v>
       </c>
       <c r="D5">
-        <v>0.02724798084139124</v>
+        <v>0.02724798084139479</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2138535563501094</v>
+        <v>0.2138535563500952</v>
       </c>
       <c r="L5">
-        <v>0.6437722109540971</v>
+        <v>0.6437722109541042</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.889938546970797</v>
+        <v>1.889938546970967</v>
       </c>
       <c r="C6">
-        <v>0.3501505683674253</v>
+        <v>0.3501505683675674</v>
       </c>
       <c r="D6">
-        <v>0.02726208637840699</v>
+        <v>0.02726208637839633</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>1.627089365606011</v>
       </c>
       <c r="G6">
-        <v>1.309835051327568</v>
+        <v>1.309835051327582</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.212367715868794</v>
+        <v>0.2123677158688295</v>
       </c>
       <c r="L6">
-        <v>0.6389665242750127</v>
+        <v>0.6389665242750056</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.989437036733051</v>
+        <v>1.989437036732852</v>
       </c>
       <c r="C7">
-        <v>0.3654772408453368</v>
+        <v>0.3654772408451663</v>
       </c>
       <c r="D7">
-        <v>0.02716883929612735</v>
+        <v>0.02716883929610248</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.690842650110639</v>
+        <v>1.690842650110667</v>
       </c>
       <c r="G7">
-        <v>1.359020337857103</v>
+        <v>1.359020337857118</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2227249063276346</v>
+        <v>0.2227249063276275</v>
       </c>
       <c r="L7">
-        <v>0.6724216917015156</v>
+        <v>0.6724216917015013</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.434137887366205</v>
+        <v>2.434137887365978</v>
       </c>
       <c r="C8">
-        <v>0.433507878660464</v>
+        <v>0.4335078786605209</v>
       </c>
       <c r="D8">
-        <v>0.02688285965798798</v>
+        <v>0.0268828596577606</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.981188744996672</v>
       </c>
       <c r="G8">
-        <v>1.583471845089306</v>
+        <v>1.583471845089292</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2696464624943786</v>
+        <v>0.269646462494407</v>
       </c>
       <c r="L8">
-        <v>0.822821248788884</v>
+        <v>0.8228212487888626</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.334944837122464</v>
+        <v>3.334944837122293</v>
       </c>
       <c r="C9">
-        <v>0.569486927221277</v>
+        <v>0.5694869272213339</v>
       </c>
       <c r="D9">
-        <v>0.02688510358000684</v>
+        <v>0.02688510357991092</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.592108493909905</v>
+        <v>2.592108493909876</v>
       </c>
       <c r="G9">
-        <v>2.057681349316866</v>
+        <v>2.057681349316837</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.3674821786287126</v>
       </c>
       <c r="L9">
-        <v>1.131330395083793</v>
+        <v>1.131330395083786</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.023691020208787</v>
+        <v>4.023691020208844</v>
       </c>
       <c r="C10">
-        <v>0.6722346242194703</v>
+        <v>0.6722346242199535</v>
       </c>
       <c r="D10">
-        <v>0.02735622534702387</v>
+        <v>0.02735622534701321</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.076313574103125</v>
+        <v>3.076313574103153</v>
       </c>
       <c r="G10">
         <v>2.435010513385194</v>
@@ -746,7 +746,7 @@
         <v>0.4445161764014571</v>
       </c>
       <c r="L10">
-        <v>1.370279360223222</v>
+        <v>1.370279360223208</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.345332369724304</v>
+        <v>4.345332369724133</v>
       </c>
       <c r="C11">
-        <v>0.7199327394795603</v>
+        <v>0.7199327394791055</v>
       </c>
       <c r="D11">
-        <v>0.02770667308487162</v>
+        <v>0.02770667308475083</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.306892686722477</v>
+        <v>3.306892686722534</v>
       </c>
       <c r="G11">
-        <v>2.615085402876403</v>
+        <v>2.615085402876417</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4811045141756267</v>
+        <v>0.4811045141756551</v>
       </c>
       <c r="L11">
-        <v>1.482708138264499</v>
+        <v>1.482708138264471</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>4.468567956035884</v>
       </c>
       <c r="C12">
-        <v>0.7381657123860066</v>
+        <v>0.7381657123857792</v>
       </c>
       <c r="D12">
-        <v>0.02786240930684514</v>
+        <v>0.02786240930684869</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.395946121726837</v>
+        <v>3.395946121726809</v>
       </c>
       <c r="G12">
         <v>2.684695741839064</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.441958860196678</v>
+        <v>4.441958860196735</v>
       </c>
       <c r="C13">
-        <v>0.7342307415136133</v>
+        <v>0.7342307415135849</v>
       </c>
       <c r="D13">
-        <v>0.02782778311546608</v>
+        <v>0.02782778311554068</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.37668509790214</v>
+        <v>3.376685097902282</v>
       </c>
       <c r="G13">
-        <v>2.669637112651543</v>
+        <v>2.6696371126516</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4921703596427989</v>
+        <v>0.4921703596428628</v>
       </c>
       <c r="L13">
-        <v>1.516584894667844</v>
+        <v>1.516584894667901</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355440737478716</v>
+        <v>4.355440737478602</v>
       </c>
       <c r="C14">
-        <v>0.7214291481442103</v>
+        <v>0.7214291481444661</v>
       </c>
       <c r="D14">
-        <v>0.02771900216370682</v>
+        <v>0.02771900216345813</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.314182735586684</v>
+        <v>3.314182735586655</v>
       </c>
       <c r="G14">
-        <v>2.620782528221895</v>
+        <v>2.620782528221866</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4822605516752176</v>
+        <v>0.482260551675175</v>
       </c>
       <c r="L14">
-        <v>1.486249906946981</v>
+        <v>1.486249906946966</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302640738960122</v>
+        <v>4.302640738960179</v>
       </c>
       <c r="C15">
-        <v>0.7136111031049381</v>
+        <v>0.7136111031048245</v>
       </c>
       <c r="D15">
         <v>0.02765548230966886</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.276132802877356</v>
+        <v>3.276132802877385</v>
       </c>
       <c r="G15">
-        <v>2.591049297729427</v>
+        <v>2.591049297729469</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4762262251895706</v>
+        <v>0.4762262251895564</v>
       </c>
       <c r="L15">
-        <v>1.467755470065086</v>
+        <v>1.467755470065072</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.00285826073025</v>
+        <v>4.002858260730306</v>
       </c>
       <c r="C16">
-        <v>0.6691394216159097</v>
+        <v>0.6691394216156823</v>
       </c>
       <c r="D16">
-        <v>0.02733634431584164</v>
+        <v>0.02733634431587006</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.061473184339121</v>
+        <v>3.061473184339036</v>
       </c>
       <c r="G16">
         <v>2.423428871352229</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4421595593892818</v>
+        <v>0.4421595593893031</v>
       </c>
       <c r="L16">
-        <v>1.363015406546708</v>
+        <v>1.363015406546737</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.821244041441219</v>
+        <v>3.821244041441105</v>
       </c>
       <c r="C17">
-        <v>0.6421247427128378</v>
+        <v>0.6421247427126389</v>
       </c>
       <c r="D17">
         <v>0.02717771153044879</v>
@@ -997,7 +997,7 @@
         <v>2.932598002853325</v>
       </c>
       <c r="G17">
-        <v>2.322896237007129</v>
+        <v>2.322896237007114</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4216842759322788</v>
+        <v>0.4216842759322574</v>
       </c>
       <c r="L17">
-        <v>1.299784815708534</v>
+        <v>1.299784815708549</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>3.717551921561153</v>
       </c>
       <c r="C18">
-        <v>0.6266745085430898</v>
+        <v>0.6266745085428624</v>
       </c>
       <c r="D18">
-        <v>0.02709904588325074</v>
+        <v>0.02709904588312995</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.859425732042382</v>
+        <v>2.859425732042411</v>
       </c>
       <c r="G18">
         <v>2.265851521851872</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4100500363181538</v>
+        <v>0.4100500363181396</v>
       </c>
       <c r="L18">
         <v>1.263760301197053</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.682568637028623</v>
+        <v>3.68256863702851</v>
       </c>
       <c r="C19">
-        <v>0.6214574936296913</v>
+        <v>0.6214574936299471</v>
       </c>
       <c r="D19">
-        <v>0.02707447486687542</v>
+        <v>0.02707447486672976</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>2.834807396756133</v>
       </c>
       <c r="G19">
-        <v>2.246665087824582</v>
+        <v>2.246665087824624</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4061342039103337</v>
+        <v>0.4061342039103124</v>
       </c>
       <c r="L19">
-        <v>1.251619207733285</v>
+        <v>1.25161920773327</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.840496118418628</v>
+        <v>3.840496118418741</v>
       </c>
       <c r="C20">
-        <v>0.6449911811363904</v>
+        <v>0.6449911811368452</v>
       </c>
       <c r="D20">
-        <v>0.02719327352333423</v>
+        <v>0.0271932735232987</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.946216586740462</v>
+        <v>2.946216586740519</v>
       </c>
       <c r="G20">
-        <v>2.333516070715064</v>
+        <v>2.333516070715078</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4238488637904894</v>
+        <v>0.4238488637905036</v>
       </c>
       <c r="L20">
         <v>1.306479512705636</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.380812122261432</v>
+        <v>4.380812122261716</v>
       </c>
       <c r="C21">
-        <v>0.7251843643775828</v>
+        <v>0.725184364377867</v>
       </c>
       <c r="D21">
-        <v>0.02775029829053111</v>
+        <v>0.02775029829030018</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.332491800946855</v>
+        <v>3.332491800946798</v>
       </c>
       <c r="G21">
-        <v>2.635091956033492</v>
+        <v>2.635091956033463</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4851637753384566</v>
+        <v>0.4851637753384139</v>
       </c>
       <c r="L21">
         <v>1.495141770104908</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742453795893596</v>
+        <v>4.742453795893539</v>
       </c>
       <c r="C22">
-        <v>0.7786095803455453</v>
+        <v>0.7786095803450053</v>
       </c>
       <c r="D22">
-        <v>0.02825063244905479</v>
+        <v>0.02825063244892689</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.595223042743868</v>
+        <v>3.595223042743896</v>
       </c>
       <c r="G22">
-        <v>2.840585377755673</v>
+        <v>2.840585377755701</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5267991731520212</v>
+        <v>0.5267991731520141</v>
       </c>
       <c r="L22">
-        <v>1.62223109152869</v>
+        <v>1.622231091528732</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.54857105019704</v>
+        <v>4.548571050196983</v>
       </c>
       <c r="C23">
         <v>0.7499904389929952</v>
       </c>
       <c r="D23">
-        <v>0.02796982256346325</v>
+        <v>0.02796982256354141</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.453963485351807</v>
+        <v>3.453963485351835</v>
       </c>
       <c r="G23">
-        <v>2.73006429190427</v>
+        <v>2.730064291904313</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5044190678765901</v>
+        <v>0.5044190678766327</v>
       </c>
       <c r="L23">
         <v>1.554016215182003</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831790028428657</v>
+        <v>3.831790028428543</v>
       </c>
       <c r="C24">
-        <v>0.6436950148757603</v>
+        <v>0.6436950148759593</v>
       </c>
       <c r="D24">
-        <v>0.02718619915776088</v>
+        <v>0.02718619915766496</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.940056778833991</v>
+        <v>2.940056778833963</v>
       </c>
       <c r="G24">
         <v>2.328712514315242</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4228698291081514</v>
+        <v>0.4228698291081372</v>
       </c>
       <c r="L24">
-        <v>1.303451827400735</v>
+        <v>1.303451827400721</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>3.087275303355625</v>
       </c>
       <c r="C25">
-        <v>0.5323039776185681</v>
+        <v>0.5323039776187954</v>
       </c>
       <c r="D25">
-        <v>0.02681228911680478</v>
+        <v>0.02681228911692557</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.421428220198663</v>
+        <v>2.421428220198621</v>
       </c>
       <c r="G25">
         <v>1.924966246109278</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3402385388337734</v>
+        <v>0.340238538833745</v>
       </c>
       <c r="L25">
-        <v>1.046033650141915</v>
+        <v>1.046033650141901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.556265916791915</v>
+        <v>2.556116218125339</v>
       </c>
       <c r="C2">
-        <v>0.4520730086900357</v>
+        <v>0.4519884305043149</v>
       </c>
       <c r="D2">
-        <v>0.02683940515075633</v>
+        <v>0.02670166868829327</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.062338873123693</v>
+        <v>2.058059679592972</v>
       </c>
       <c r="G2">
-        <v>1.646322715178641</v>
+        <v>0.5293304945721076</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.116541169650475</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2827013326291308</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8643590045974321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2826948508224234</v>
+      </c>
+      <c r="M2">
+        <v>0.8643361456763827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.204012244458511</v>
+        <v>2.203922554477856</v>
       </c>
       <c r="C3">
-        <v>0.3983930565915728</v>
+        <v>0.3983373376105988</v>
       </c>
       <c r="D3">
-        <v>0.02700502637187441</v>
+        <v>0.02688029710839501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.829885473861665</v>
+        <v>1.826124163552151</v>
       </c>
       <c r="G3">
-        <v>1.46642001254753</v>
+        <v>0.4667000423659999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9999046360368453</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2452408707245723</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7448195610202717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2452364833190188</v>
+      </c>
+      <c r="M3">
+        <v>0.744806798506481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.990604013926912</v>
+        <v>1.990545337873868</v>
       </c>
       <c r="C4">
-        <v>0.3656567508549529</v>
+        <v>0.3656177070947422</v>
       </c>
       <c r="D4">
-        <v>0.02716781220918563</v>
+        <v>0.02705080255209324</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.691593185974625</v>
+        <v>1.688142862067053</v>
       </c>
       <c r="G4">
-        <v>1.359599602713487</v>
+        <v>0.4294242286371741</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.930741985533345</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2228467031950387</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6728145198294371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2228435544080156</v>
+      </c>
+      <c r="M4">
+        <v>0.6728066234369123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904244981822131</v>
+        <v>1.904197673221972</v>
       </c>
       <c r="C5">
-        <v>0.352356968577368</v>
+        <v>0.3523245016272938</v>
       </c>
       <c r="D5">
-        <v>0.02724798084139479</v>
+        <v>0.0271340585717823</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.636226703035348</v>
+        <v>1.63290164091093</v>
       </c>
       <c r="G5">
-        <v>1.316882031231088</v>
+        <v>0.4144957734220327</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9031067464879214</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2138535563500952</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6437722109541042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2138509077647015</v>
+      </c>
+      <c r="M5">
+        <v>0.6437660118207376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.889938546970967</v>
+        <v>1.889893054449999</v>
       </c>
       <c r="C6">
-        <v>0.3501505683675674</v>
+        <v>0.3501191814967797</v>
       </c>
       <c r="D6">
-        <v>0.02726208637839633</v>
+        <v>0.02714867347744487</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.627089365606011</v>
+        <v>1.623785022391473</v>
       </c>
       <c r="G6">
-        <v>1.309835051327582</v>
+        <v>0.4120317607014385</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8985492329758102</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2123677158688295</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6389665242750056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2123651502549038</v>
+      </c>
+      <c r="M6">
+        <v>0.6389605910360885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.989437036732852</v>
+        <v>1.989378518889595</v>
       </c>
       <c r="C7">
-        <v>0.3654772408451663</v>
+        <v>0.3654382866114076</v>
       </c>
       <c r="D7">
-        <v>0.02716883929610248</v>
+        <v>0.02705187150213462</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.690842650110667</v>
+        <v>1.687394021107423</v>
       </c>
       <c r="G7">
-        <v>1.359020337857118</v>
+        <v>0.4292218823875658</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9303671489051766</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2227249063276275</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6724216917015013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2227217642962245</v>
+      </c>
+      <c r="M7">
+        <v>0.6724138192950804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.434137887365978</v>
+        <v>2.434010215199464</v>
       </c>
       <c r="C8">
-        <v>0.4335078786605209</v>
+        <v>0.4334334960736328</v>
       </c>
       <c r="D8">
-        <v>0.0268828596577606</v>
+        <v>0.02674966896978148</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.981188744996672</v>
+        <v>1.977089755477252</v>
       </c>
       <c r="G8">
-        <v>1.583471845089292</v>
+        <v>0.5074687297239535</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.075773216518655</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.269646462494407</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8228212487888626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2696407175866895</v>
+      </c>
+      <c r="M8">
+        <v>0.8228021797827694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.334944837122293</v>
+        <v>3.334625051817397</v>
       </c>
       <c r="C9">
-        <v>0.5694869272213339</v>
+        <v>0.5693324928271579</v>
       </c>
       <c r="D9">
-        <v>0.02688510357991092</v>
+        <v>0.02671753939768706</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.592108493909876</v>
+        <v>2.586663529039129</v>
       </c>
       <c r="G9">
-        <v>2.057681349316837</v>
+        <v>0.6720236571889302</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.383777724577499</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3674821786287126</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.131330395083786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3674705244255705</v>
+      </c>
+      <c r="M9">
+        <v>1.131276139700354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.023691020208844</v>
+        <v>4.023178670143466</v>
       </c>
       <c r="C10">
-        <v>0.6722346242199535</v>
+        <v>0.6720111719651243</v>
       </c>
       <c r="D10">
-        <v>0.02735622534701321</v>
+        <v>0.02716113392712316</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.076313574103153</v>
+        <v>3.069811938187428</v>
       </c>
       <c r="G10">
-        <v>2.435010513385194</v>
+        <v>0.8024637731340221</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.629374927107179</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4445161764014571</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.370279360223208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4444988890888553</v>
+      </c>
+      <c r="M10">
+        <v>1.370186665137808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.345332369724133</v>
+        <v>4.344716470608034</v>
       </c>
       <c r="C11">
-        <v>0.7199327394791055</v>
+        <v>0.7196746319361012</v>
       </c>
       <c r="D11">
-        <v>0.02770667308475083</v>
+        <v>0.02749837317213988</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.306892686722534</v>
+        <v>3.299888810765339</v>
       </c>
       <c r="G11">
-        <v>2.615085402876417</v>
+        <v>0.8646003117378882</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.746700623143084</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4811045141756551</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.482708138264471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4810841252323002</v>
+      </c>
+      <c r="M11">
+        <v>1.482593903053242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.468567956035884</v>
+        <v>4.467910051767433</v>
       </c>
       <c r="C12">
-        <v>0.7381657123857792</v>
+        <v>0.7378939056565343</v>
       </c>
       <c r="D12">
-        <v>0.02786240930684869</v>
+        <v>0.02764898964498741</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.395946121726809</v>
+        <v>3.388748262995705</v>
       </c>
       <c r="G12">
-        <v>2.684695741839064</v>
+        <v>0.8886030627650996</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.792071843652693</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4952236369352931</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.5259220383806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4952019660117699</v>
+      </c>
+      <c r="M12">
+        <v>1.525798921539987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.441958860196735</v>
+        <v>4.441310135780043</v>
       </c>
       <c r="C13">
-        <v>0.7342307415135849</v>
+        <v>0.7339619126987031</v>
       </c>
       <c r="D13">
-        <v>0.02782778311554068</v>
+        <v>0.02761547167424183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.376685097902282</v>
+        <v>3.369529198122962</v>
       </c>
       <c r="G13">
-        <v>2.6696371126516</v>
+        <v>0.8834113688937748</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.78225602239948</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4921703596428628</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.516584894667901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4921489701661912</v>
+      </c>
+      <c r="M13">
+        <v>1.516463725492315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355440737478602</v>
+        <v>4.354821441781041</v>
       </c>
       <c r="C14">
-        <v>0.7214291481444661</v>
+        <v>0.7211699257923954</v>
       </c>
       <c r="D14">
-        <v>0.02771900216345813</v>
+        <v>0.02751028353304719</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.314182735586655</v>
+        <v>3.307162981066654</v>
       </c>
       <c r="G14">
-        <v>2.620782528221866</v>
+        <v>0.8665651118296864</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.750413594784504</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.482260551675175</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.486249906946966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4822400596185332</v>
+      </c>
+      <c r="M14">
+        <v>1.486134956494055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302640738960179</v>
+        <v>4.302039088872959</v>
       </c>
       <c r="C15">
-        <v>0.7136111031048245</v>
+        <v>0.7133576864430893</v>
       </c>
       <c r="D15">
-        <v>0.02765548230966886</v>
+        <v>0.02744894838527046</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.276132802877385</v>
+        <v>3.269195924126166</v>
       </c>
       <c r="G15">
-        <v>2.591049297729469</v>
+        <v>0.8563101607769283</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.731036339513466</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4762262251895564</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.467755470065072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4762062677996823</v>
+      </c>
+      <c r="M15">
+        <v>1.467644229603593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.002858260730306</v>
+        <v>4.002352316376403</v>
       </c>
       <c r="C16">
-        <v>0.6691394216156823</v>
+        <v>0.6689181598641767</v>
       </c>
       <c r="D16">
-        <v>0.02733634431587006</v>
+        <v>0.02714210071766132</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.061473184339036</v>
+        <v>3.05500388063308</v>
       </c>
       <c r="G16">
-        <v>2.423428871352229</v>
+        <v>0.7984651218600618</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.621831408719288</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4421595593893031</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.363015406546737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4421424615553207</v>
+      </c>
+      <c r="M16">
+        <v>1.362924026158893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.821244041441105</v>
+        <v>3.820792398538401</v>
       </c>
       <c r="C17">
-        <v>0.6421247427126389</v>
+        <v>0.6419223020149332</v>
       </c>
       <c r="D17">
-        <v>0.02717771153044879</v>
+        <v>0.02699081915793045</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.932598002853325</v>
+        <v>2.926409564113044</v>
       </c>
       <c r="G17">
-        <v>2.322896237007114</v>
+        <v>0.7637429559449913</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.556363986222607</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4216842759322574</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.299784815708549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4216687754740818</v>
+      </c>
+      <c r="M17">
+        <v>1.299704489064382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.717551921561153</v>
+        <v>3.717130045180852</v>
       </c>
       <c r="C18">
-        <v>0.6266745085428624</v>
+        <v>0.6264825939781815</v>
       </c>
       <c r="D18">
-        <v>0.02709904588312995</v>
+        <v>0.02691631848083986</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.859425732042411</v>
+        <v>2.853396858905597</v>
       </c>
       <c r="G18">
-        <v>2.265851521851872</v>
+        <v>0.744030334895001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.519226904603599</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4100500363181396</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.263760301197053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4100354061008034</v>
+      </c>
+      <c r="M18">
+        <v>1.263685960939654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.68256863702851</v>
+        <v>3.68215660092244</v>
       </c>
       <c r="C19">
-        <v>0.6214574936299471</v>
+        <v>0.6212690945926909</v>
       </c>
       <c r="D19">
-        <v>0.02707447486672976</v>
+        <v>0.02689314732289461</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.834807396756133</v>
+        <v>2.828832228825405</v>
       </c>
       <c r="G19">
-        <v>2.246665087824624</v>
+        <v>0.7373984158198823</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.506738044262136</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4061342039103124</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.25161920773327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4061198607883583</v>
+      </c>
+      <c r="M19">
+        <v>1.251546834400585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.840496118418741</v>
+        <v>3.840038850092697</v>
       </c>
       <c r="C20">
-        <v>0.6449911811368452</v>
+        <v>0.6447867685901656</v>
       </c>
       <c r="D20">
-        <v>0.0271932735232987</v>
+        <v>0.0270056052771821</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.946216586740519</v>
+        <v>2.939998459058245</v>
       </c>
       <c r="G20">
-        <v>2.333516070715078</v>
+        <v>0.7674119415356557</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.563278559589492</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4238488637905036</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.306479512705636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4238331985019457</v>
+      </c>
+      <c r="M20">
+        <v>1.306398048743219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.380812122261716</v>
+        <v>4.380184262935131</v>
       </c>
       <c r="C21">
-        <v>0.725184364377867</v>
+        <v>0.7249223369649656</v>
       </c>
       <c r="D21">
-        <v>0.02775029829030018</v>
+        <v>0.02754052773686055</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.332491800946798</v>
+        <v>3.325432166464878</v>
       </c>
       <c r="G21">
-        <v>2.635091956033463</v>
+        <v>0.8714998150169748</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.759739716047108</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4851637753384139</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.495141770104908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4851430228857581</v>
+      </c>
+      <c r="M21">
+        <v>1.495025014026524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742453795893539</v>
+        <v>4.741697853394101</v>
       </c>
       <c r="C22">
-        <v>0.7786095803450053</v>
+        <v>0.7783064753350004</v>
       </c>
       <c r="D22">
-        <v>0.02825063244892689</v>
+        <v>0.02802571754132188</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.595223042743896</v>
+        <v>3.587590889283518</v>
       </c>
       <c r="G22">
-        <v>2.840585377755701</v>
+        <v>0.9423248507536499</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.893711065701524</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5267991731520141</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.622231091528732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5267744489334305</v>
+      </c>
+      <c r="M22">
+        <v>1.622086954127525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.548571050196983</v>
+        <v>4.547885179180469</v>
       </c>
       <c r="C23">
-        <v>0.7499904389929952</v>
+        <v>0.7497096121885249</v>
       </c>
       <c r="D23">
-        <v>0.02796982256354141</v>
+        <v>0.02775306175911396</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.453963485351835</v>
+        <v>3.446639224564876</v>
       </c>
       <c r="G23">
-        <v>2.730064291904313</v>
+        <v>0.9042420894089105</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.821647428495268</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5044190678766327</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.554016215182003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5043965349451867</v>
+      </c>
+      <c r="M23">
+        <v>1.553887142380049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831790028428543</v>
+        <v>3.831335307843005</v>
       </c>
       <c r="C24">
-        <v>0.6436950148759593</v>
+        <v>0.6434914947113271</v>
       </c>
       <c r="D24">
-        <v>0.02718619915766496</v>
+        <v>0.02699888187360244</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.940056778833963</v>
+        <v>2.933852079412276</v>
       </c>
       <c r="G24">
-        <v>2.328712514315242</v>
+        <v>0.7657524208492106</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.560150930514823</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4228698291081372</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.303451827400721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4228542384871119</v>
+      </c>
+      <c r="M24">
+        <v>1.303370878757548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.087275303355625</v>
+        <v>3.087015118013881</v>
       </c>
       <c r="C25">
-        <v>0.5323039776187954</v>
+        <v>0.5321726834269498</v>
       </c>
       <c r="D25">
-        <v>0.02681228911692557</v>
+        <v>0.02665436548349476</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.421428220198621</v>
+        <v>2.41635726037876</v>
       </c>
       <c r="G25">
-        <v>1.924966246109278</v>
+        <v>0.6260522405889759</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.297492096218519</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.340238538833745</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.046033650141901</v>
+        <v>0.3402286394369796</v>
+      </c>
+      <c r="M25">
+        <v>1.045990744542188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.556116218125339</v>
+        <v>3.786346261624033</v>
       </c>
       <c r="C2">
-        <v>0.4519884305043149</v>
+        <v>1.020301275472661</v>
       </c>
       <c r="D2">
-        <v>0.02670166868829327</v>
+        <v>0.1378211499085893</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.058059679592972</v>
+        <v>2.128089225945416</v>
       </c>
       <c r="G2">
-        <v>0.5293304945721076</v>
+        <v>0.000784951473226648</v>
       </c>
       <c r="H2">
-        <v>1.116541169650475</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4440030758892846</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2826948508224234</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8643361456763827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.6346816721620776</v>
+      </c>
+      <c r="O2">
+        <v>1.293294410248805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.203922554477856</v>
+        <v>3.274115421425734</v>
       </c>
       <c r="C3">
-        <v>0.3983373376105988</v>
+        <v>0.8799958539419492</v>
       </c>
       <c r="D3">
-        <v>0.02688029710839501</v>
+        <v>0.1219772275429705</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.826124163552151</v>
+        <v>1.923824337884128</v>
       </c>
       <c r="G3">
-        <v>0.4667000423659999</v>
+        <v>0.0007933593360843459</v>
       </c>
       <c r="H3">
-        <v>0.9999046360368453</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3900534637471367</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2452364833190188</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.744806798506481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.6891531994617015</v>
+      </c>
+      <c r="O3">
+        <v>1.172384868077415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.990545337873868</v>
+        <v>2.964239723493279</v>
       </c>
       <c r="C4">
-        <v>0.3656177070947422</v>
+        <v>0.7950276868165531</v>
       </c>
       <c r="D4">
-        <v>0.02705080255209324</v>
+        <v>0.11238227711749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.688142862067053</v>
+        <v>1.803828273849348</v>
       </c>
       <c r="G4">
-        <v>0.4294242286371741</v>
+        <v>0.0007986522557566376</v>
       </c>
       <c r="H4">
-        <v>0.930741985533345</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3578038225554394</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2228435544080156</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6728066234369123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.7241616012602403</v>
+      </c>
+      <c r="O4">
+        <v>1.101718991208656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904197673221972</v>
+        <v>2.838961401105678</v>
       </c>
       <c r="C5">
-        <v>0.3523245016272938</v>
+        <v>0.7606523094746933</v>
       </c>
       <c r="D5">
-        <v>0.0271340585717823</v>
+        <v>0.1085018489258545</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.63290164091093</v>
+        <v>1.756156423866472</v>
       </c>
       <c r="G5">
-        <v>0.4144957734220327</v>
+        <v>0.0008008437190853336</v>
       </c>
       <c r="H5">
-        <v>0.9031067464879214</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3448560803952176</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2138509077647015</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6437660118207376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.7388024849142187</v>
+      </c>
+      <c r="O5">
+        <v>1.073731346347756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.889893054449999</v>
+        <v>2.818214726918484</v>
       </c>
       <c r="C6">
-        <v>0.3501191814967797</v>
+        <v>0.7549581038157669</v>
       </c>
       <c r="D6">
-        <v>0.02714867347744487</v>
+        <v>0.1078591859517104</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.623785022391473</v>
+        <v>1.748310928884862</v>
       </c>
       <c r="G6">
-        <v>0.4120317607014385</v>
+        <v>0.0008012097455892488</v>
       </c>
       <c r="H6">
-        <v>0.8985492329758102</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3427171349565157</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2123651502549038</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6389605910360885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.7412557184692705</v>
+      </c>
+      <c r="O6">
+        <v>1.06913043560489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.989378518889595</v>
+        <v>2.962546343627196</v>
       </c>
       <c r="C7">
-        <v>0.3654382866114076</v>
+        <v>0.7945631357329432</v>
       </c>
       <c r="D7">
-        <v>0.02705187150213462</v>
+        <v>0.1123298294213981</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.687394021107423</v>
+        <v>1.803180555892794</v>
       </c>
       <c r="G7">
-        <v>0.4292218823875658</v>
+        <v>0.0007986816685334812</v>
       </c>
       <c r="H7">
-        <v>0.9303671489051766</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3576284508817622</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2227217642962245</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6724138192950804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.724357559245794</v>
+      </c>
+      <c r="O7">
+        <v>1.101338375592547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.434010215199464</v>
+        <v>3.608661318248608</v>
       </c>
       <c r="C8">
-        <v>0.4334334960736328</v>
+        <v>0.971649459476339</v>
       </c>
       <c r="D8">
-        <v>0.02674966896978148</v>
+        <v>0.1323280249313825</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.977089755477252</v>
+        <v>2.05644717767187</v>
       </c>
       <c r="G8">
-        <v>0.5074687297239535</v>
+        <v>0.000787824528694039</v>
       </c>
       <c r="H8">
-        <v>1.075773216518655</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4252031380201373</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2696407175866895</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8228021797827694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.6531276146666603</v>
+      </c>
+      <c r="O8">
+        <v>1.25080697591055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.334625051817397</v>
+        <v>4.920922531384406</v>
       </c>
       <c r="C9">
-        <v>0.5693324928271579</v>
+        <v>1.330652821876356</v>
       </c>
       <c r="D9">
-        <v>0.02671753939768706</v>
+        <v>0.1728008499022593</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.586663529039129</v>
+        <v>2.602990679485487</v>
       </c>
       <c r="G9">
-        <v>0.6720236571889302</v>
+        <v>0.0007674811748289434</v>
       </c>
       <c r="H9">
-        <v>1.383777724577499</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5659749656513924</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3674705244255705</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.131276139700354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5267583800768296</v>
+      </c>
+      <c r="O9">
+        <v>1.576753069359299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.023178670143466</v>
+        <v>5.92596589361483</v>
       </c>
       <c r="C10">
-        <v>0.6720111719651243</v>
+        <v>1.605340083169381</v>
       </c>
       <c r="D10">
-        <v>0.02716113392712316</v>
+        <v>0.2036174707273517</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.069811938187428</v>
+        <v>3.045762840511628</v>
       </c>
       <c r="G10">
-        <v>0.8024637731340221</v>
+        <v>0.000752975082542796</v>
       </c>
       <c r="H10">
-        <v>1.629374927107179</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6765090456882206</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4444988890888553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.370186665137808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.4434639765732094</v>
+      </c>
+      <c r="O10">
+        <v>1.843322124403201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.344716470608034</v>
+        <v>6.395559782366149</v>
       </c>
       <c r="C11">
-        <v>0.7196746319361012</v>
+        <v>1.733666986754031</v>
       </c>
       <c r="D11">
-        <v>0.02749837317213988</v>
+        <v>0.2179538816310753</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.299888810765339</v>
+        <v>3.258972197949248</v>
       </c>
       <c r="G11">
-        <v>0.8646003117378882</v>
+        <v>0.0007464358710127986</v>
       </c>
       <c r="H11">
-        <v>1.746700623143084</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7288823679824503</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4810841252323002</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.482593903053242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.4080208474562959</v>
+      </c>
+      <c r="O11">
+        <v>1.972326959546791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.467910051767433</v>
+        <v>6.575504191639368</v>
       </c>
       <c r="C12">
-        <v>0.7378939056565343</v>
+        <v>1.782842717032111</v>
       </c>
       <c r="D12">
-        <v>0.02764898964498741</v>
+        <v>0.2234363845973348</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.388748262995705</v>
+        <v>3.341680962791173</v>
       </c>
       <c r="G12">
-        <v>0.8886030627650996</v>
+        <v>0.0007439647825424611</v>
       </c>
       <c r="H12">
-        <v>1.792071843652693</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7490688093415372</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4952019660117699</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.525798921539987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.3949886529556466</v>
+      </c>
+      <c r="O12">
+        <v>2.022472057970774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.441310135780043</v>
+        <v>6.536649789628086</v>
       </c>
       <c r="C13">
-        <v>0.7339619126987031</v>
+        <v>1.772224306454689</v>
       </c>
       <c r="D13">
-        <v>0.02761547167424183</v>
+        <v>0.222253106524235</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.369529198122962</v>
+        <v>3.32377566638857</v>
       </c>
       <c r="G13">
-        <v>0.8834113688937748</v>
+        <v>0.0007444968053894549</v>
       </c>
       <c r="H13">
-        <v>1.78225602239948</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7447046309907108</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4921489701661912</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.516463725492315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.3977773993412086</v>
+      </c>
+      <c r="O13">
+        <v>2.011611712647849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.354821441781041</v>
+        <v>6.410319336578311</v>
       </c>
       <c r="C14">
-        <v>0.7211699257923954</v>
+        <v>1.737700453112609</v>
       </c>
       <c r="D14">
-        <v>0.02751028353304719</v>
+        <v>0.21840380648338</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.307162981066654</v>
+        <v>3.265735473438156</v>
       </c>
       <c r="G14">
-        <v>0.8665651118296864</v>
+        <v>0.0007462324907954973</v>
       </c>
       <c r="H14">
-        <v>1.750413594784504</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7305356952955577</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4822400596185332</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.486134956494055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4069406444524652</v>
+      </c>
+      <c r="O14">
+        <v>1.976425369233169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302039088872959</v>
+        <v>6.333225125986928</v>
       </c>
       <c r="C15">
-        <v>0.7133576864430893</v>
+        <v>1.716632382894716</v>
       </c>
       <c r="D15">
-        <v>0.02744894838527046</v>
+        <v>0.2160532357744387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.269195924126166</v>
+        <v>3.230449726269939</v>
       </c>
       <c r="G15">
-        <v>0.8563101607769283</v>
+        <v>0.0007472962117683554</v>
       </c>
       <c r="H15">
-        <v>1.731036339513466</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7219046000342217</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4762062677996823</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.467644229603593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.4126053023863889</v>
+      </c>
+      <c r="O15">
+        <v>1.955047012779872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.002352316376403</v>
+        <v>5.895553976380484</v>
       </c>
       <c r="C16">
-        <v>0.6689181598641767</v>
+        <v>1.597029365476658</v>
       </c>
       <c r="D16">
-        <v>0.02714210071766132</v>
+        <v>0.2026875987998125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.05500388063308</v>
+        <v>3.032089025359568</v>
       </c>
       <c r="G16">
-        <v>0.7984651218600618</v>
+        <v>0.0007534033552750901</v>
       </c>
       <c r="H16">
-        <v>1.621831408719288</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6731327667158951</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4421424615553207</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.362924026158893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4458325983315277</v>
+      </c>
+      <c r="O16">
+        <v>1.835061982484135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.820792398538401</v>
+        <v>5.630456672046876</v>
       </c>
       <c r="C17">
-        <v>0.6419223020149332</v>
+        <v>1.524584322808437</v>
       </c>
       <c r="D17">
-        <v>0.02699081915793045</v>
+        <v>0.1945748960896623</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.926409564113044</v>
+        <v>2.913604924884055</v>
       </c>
       <c r="G17">
-        <v>0.7637429559449913</v>
+        <v>0.000757162892202734</v>
       </c>
       <c r="H17">
-        <v>1.556363986222607</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6437837781586353</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4216687754740818</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.299704489064382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4668683719323568</v>
+      </c>
+      <c r="O17">
+        <v>1.763558347589168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.717130045180852</v>
+        <v>5.47912357982284</v>
       </c>
       <c r="C18">
-        <v>0.6264825939781815</v>
+        <v>1.483226536741768</v>
       </c>
       <c r="D18">
-        <v>0.02691631848083986</v>
+        <v>0.1899380596282327</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.853396858905597</v>
+        <v>2.846547103746616</v>
       </c>
       <c r="G18">
-        <v>0.744030334895001</v>
+        <v>0.0007593311260680152</v>
       </c>
       <c r="H18">
-        <v>1.519226904603599</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.627096212150164</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4100354061008034</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.263685960939654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4791954758479662</v>
+      </c>
+      <c r="O18">
+        <v>1.723147775500124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.68215660092244</v>
+        <v>5.428071744804299</v>
       </c>
       <c r="C19">
-        <v>0.6212690945926909</v>
+        <v>1.469274146798966</v>
       </c>
       <c r="D19">
-        <v>0.02689314732289461</v>
+        <v>0.1883729282357223</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.828832228825405</v>
+        <v>2.824022104420408</v>
       </c>
       <c r="G19">
-        <v>0.7373984158198823</v>
+        <v>0.0007600663535002251</v>
       </c>
       <c r="H19">
-        <v>1.506738044262136</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6214777745308453</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4061198607883583</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.251546834400585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4834073078308663</v>
+      </c>
+      <c r="O19">
+        <v>1.709583406223175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.840038850092697</v>
+        <v>5.6585560560369</v>
       </c>
       <c r="C20">
-        <v>0.6447867685901656</v>
+        <v>1.532263412161853</v>
       </c>
       <c r="D20">
-        <v>0.0270056052771821</v>
+        <v>0.1954354130436116</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.939998459058245</v>
+        <v>2.926102962940234</v>
       </c>
       <c r="G20">
-        <v>0.7674119415356557</v>
+        <v>0.0007567621010913975</v>
       </c>
       <c r="H20">
-        <v>1.563278559589492</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6468876725326282</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4238331985019457</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.306398048743219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4646052392342028</v>
+      </c>
+      <c r="O20">
+        <v>1.771094657567787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.380184262935131</v>
+        <v>6.447365204087475</v>
       </c>
       <c r="C21">
-        <v>0.7249223369649656</v>
+        <v>1.747824333659139</v>
       </c>
       <c r="D21">
-        <v>0.02754052773686055</v>
+        <v>0.219532915314403</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.325432166464878</v>
+        <v>3.282727395462388</v>
       </c>
       <c r="G21">
-        <v>0.8714998150169748</v>
+        <v>0.0007457225671588306</v>
       </c>
       <c r="H21">
-        <v>1.759739716047108</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7346873901652771</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4851430228857581</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.495025014026524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.4042382856405027</v>
+      </c>
+      <c r="O21">
+        <v>1.986723768009966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.741697853394101</v>
+        <v>6.975444411505237</v>
       </c>
       <c r="C22">
-        <v>0.7783064753350004</v>
+        <v>1.892148770569349</v>
       </c>
       <c r="D22">
-        <v>0.02802571754132188</v>
+        <v>0.2355990760027282</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.587590889283518</v>
+        <v>3.527449056351713</v>
       </c>
       <c r="G22">
-        <v>0.9423248507536499</v>
+        <v>0.0007385357721038337</v>
       </c>
       <c r="H22">
-        <v>1.893711065701524</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7941624726346532</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5267744489334305</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.622086954127525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3670758827411795</v>
+      </c>
+      <c r="O22">
+        <v>2.135294762449874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.547885179180469</v>
+        <v>6.692325995738827</v>
       </c>
       <c r="C23">
-        <v>0.7497096121885249</v>
+        <v>1.814769290611707</v>
       </c>
       <c r="D23">
-        <v>0.02775306175911396</v>
+        <v>0.2269923282793229</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.446639224564876</v>
+        <v>3.395668834064281</v>
       </c>
       <c r="G23">
-        <v>0.9042420894089105</v>
+        <v>0.0007423701802679877</v>
       </c>
       <c r="H23">
-        <v>1.821647428495268</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.762208298161724</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5043965349451867</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.553887142380049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.386686724333245</v>
+      </c>
+      <c r="O23">
+        <v>2.055233294802719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831335307843005</v>
+        <v>5.64584900135435</v>
       </c>
       <c r="C24">
-        <v>0.6434914947113271</v>
+        <v>1.528790793963537</v>
       </c>
       <c r="D24">
-        <v>0.02699888187360244</v>
+        <v>0.1950462889892464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.933852079412276</v>
+        <v>2.920449317744584</v>
       </c>
       <c r="G24">
-        <v>0.7657524208492106</v>
+        <v>0.0007569432772596141</v>
       </c>
       <c r="H24">
-        <v>1.560150930514823</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6454838278220478</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4228542384871119</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.303370878757548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4656276774268058</v>
+      </c>
+      <c r="O24">
+        <v>1.767685331575876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.087015118013881</v>
+        <v>4.559798042792806</v>
       </c>
       <c r="C25">
-        <v>0.5321726834269498</v>
+        <v>1.231915430172478</v>
       </c>
       <c r="D25">
-        <v>0.02665436548349476</v>
+        <v>0.1616871216625242</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.41635726037876</v>
+        <v>2.448758798925283</v>
       </c>
       <c r="G25">
-        <v>0.6260522405889759</v>
+        <v>0.0007728963904305504</v>
       </c>
       <c r="H25">
-        <v>1.297492096218519</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5268097988740266</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3402286394369796</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.045990744542188</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5593823252764434</v>
+      </c>
+      <c r="O25">
+        <v>1.484382137705992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.786346261624033</v>
+        <v>0.670700814326068</v>
       </c>
       <c r="C2">
-        <v>1.020301275472661</v>
+        <v>0.07360583292495448</v>
       </c>
       <c r="D2">
-        <v>0.1378211499085893</v>
+        <v>0.05985267210128598</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.128089225945416</v>
+        <v>0.4903914720574249</v>
       </c>
       <c r="G2">
-        <v>0.000784951473226648</v>
+        <v>0.0007988983787116762</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4440030758892846</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6474289244138163</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.777570300590881</v>
       </c>
       <c r="N2">
-        <v>0.6346816721620776</v>
+        <v>0.6859969668613672</v>
       </c>
       <c r="O2">
-        <v>1.293294410248805</v>
+        <v>1.416148447474939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.274115421425734</v>
+        <v>0.58363570193859</v>
       </c>
       <c r="C3">
-        <v>0.8799958539419492</v>
+        <v>0.06871008402858081</v>
       </c>
       <c r="D3">
-        <v>0.1219772275429705</v>
+        <v>0.05399842153961742</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.923824337884128</v>
+        <v>0.4611897489382883</v>
       </c>
       <c r="G3">
-        <v>0.0007933593360843459</v>
+        <v>0.0008024783923541182</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3900534637471367</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5665780481807161</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.366052379601413</v>
       </c>
       <c r="N3">
-        <v>0.6891531994617015</v>
+        <v>0.7289534780374609</v>
       </c>
       <c r="O3">
-        <v>1.172384868077415</v>
+        <v>1.36605558540279</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.964239723493279</v>
+        <v>0.5301849778785481</v>
       </c>
       <c r="C4">
-        <v>0.7950276868165531</v>
+        <v>0.06567140282174222</v>
       </c>
       <c r="D4">
-        <v>0.11238227711749</v>
+        <v>0.05037927521046726</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.803828273849348</v>
+        <v>0.4441760692453443</v>
       </c>
       <c r="G4">
-        <v>0.0007986522557566376</v>
+        <v>0.000804739919367453</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3578038225554394</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5168323680202462</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.121868383426587</v>
       </c>
       <c r="N4">
-        <v>0.7241616012602403</v>
+        <v>0.7564350721586486</v>
       </c>
       <c r="O4">
-        <v>1.101718991208656</v>
+        <v>1.338173236915694</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.838961401105678</v>
+        <v>0.5084005782510133</v>
       </c>
       <c r="C5">
-        <v>0.7606523094746933</v>
+        <v>0.06442554161495195</v>
       </c>
       <c r="D5">
-        <v>0.1085018489258545</v>
+        <v>0.04889836960843752</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.756156423866472</v>
+        <v>0.4374589291928217</v>
       </c>
       <c r="G5">
-        <v>0.0008008437190853336</v>
+        <v>0.0008056780518360157</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3448560803952176</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4965322442935616</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.024136110972634</v>
       </c>
       <c r="N5">
-        <v>0.7388024849142187</v>
+        <v>0.7679048813471425</v>
       </c>
       <c r="O5">
-        <v>1.073731346347756</v>
+        <v>1.327492506061759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.818214726918484</v>
+        <v>0.5047829907090318</v>
       </c>
       <c r="C6">
-        <v>0.7549581038157669</v>
+        <v>0.06421822677182831</v>
       </c>
       <c r="D6">
-        <v>0.1078591859517104</v>
+        <v>0.048652102266459</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.748310928884862</v>
+        <v>0.4363562027395957</v>
       </c>
       <c r="G6">
-        <v>0.0008012097455892488</v>
+        <v>0.0008058348435357848</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3427171349565157</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4931596374074445</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.008005335565443</v>
       </c>
       <c r="N6">
-        <v>0.7412557184692705</v>
+        <v>0.7698255855092597</v>
       </c>
       <c r="O6">
-        <v>1.06913043560489</v>
+        <v>1.325758987776723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.962546343627196</v>
+        <v>0.5298912033240128</v>
       </c>
       <c r="C7">
-        <v>0.7945631357329432</v>
+        <v>0.06565463059280319</v>
       </c>
       <c r="D7">
-        <v>0.1123298294213981</v>
+        <v>0.05035932766514861</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.803180555892794</v>
+        <v>0.444084622912186</v>
       </c>
       <c r="G7">
-        <v>0.0007986816685334812</v>
+        <v>0.0008047525035710934</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3576284508817622</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5165587116138681</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.120543585979277</v>
       </c>
       <c r="N7">
-        <v>0.724357559245794</v>
+        <v>0.7565886707949936</v>
       </c>
       <c r="O7">
-        <v>1.101338375592547</v>
+        <v>1.3380264858354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.608661318248608</v>
+        <v>0.6406763036719667</v>
       </c>
       <c r="C8">
-        <v>0.971649459476339</v>
+        <v>0.0719249779714346</v>
       </c>
       <c r="D8">
-        <v>0.1323280249313825</v>
+        <v>0.05783931365228057</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.05644717767187</v>
+        <v>0.4801235863026747</v>
       </c>
       <c r="G8">
-        <v>0.000787824528694039</v>
+        <v>0.0008001199951208982</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4252031380201373</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6195714321166435</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.633683349384754</v>
       </c>
       <c r="N8">
-        <v>0.6531276146666603</v>
+        <v>0.7005742949013367</v>
       </c>
       <c r="O8">
-        <v>1.25080697591055</v>
+        <v>1.398253915939819</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.920922531384406</v>
+        <v>0.8582089383814093</v>
       </c>
       <c r="C9">
-        <v>1.330652821876356</v>
+        <v>0.08392682426484299</v>
       </c>
       <c r="D9">
-        <v>0.1728008499022593</v>
+        <v>0.07230541152964776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.602990679485487</v>
+        <v>0.5587727407053578</v>
       </c>
       <c r="G9">
-        <v>0.0007674811748289434</v>
+        <v>0.0007915074709954876</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5659749656513924</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8208718279933862</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.726866469575512</v>
       </c>
       <c r="N9">
-        <v>0.5267583800768296</v>
+        <v>0.5998503527540535</v>
       </c>
       <c r="O9">
-        <v>1.576753069359299</v>
+        <v>1.541207155270484</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.92596589361483</v>
+        <v>1.018518233181908</v>
       </c>
       <c r="C10">
-        <v>1.605340083169381</v>
+        <v>0.09250271311879743</v>
       </c>
       <c r="D10">
-        <v>0.2036174707273517</v>
+        <v>0.08279658087143815</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.045762840511628</v>
+        <v>0.6225098027331484</v>
       </c>
       <c r="G10">
-        <v>0.000752975082542796</v>
+        <v>0.0007854163563192006</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6765090456882206</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9684678160631961</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.617202990196844</v>
       </c>
       <c r="N10">
-        <v>0.4434639765732094</v>
+        <v>0.531905050361015</v>
       </c>
       <c r="O10">
-        <v>1.843322124403201</v>
+        <v>1.66452585287675</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.395559782366149</v>
+        <v>1.091616355688501</v>
       </c>
       <c r="C11">
-        <v>1.733666986754031</v>
+        <v>0.09633170679722269</v>
       </c>
       <c r="D11">
-        <v>0.2179538816310753</v>
+        <v>0.08753420775041576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.258972197949248</v>
+        <v>0.653076762613864</v>
       </c>
       <c r="G11">
-        <v>0.0007464358710127986</v>
+        <v>0.0007826823597528392</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7288823679824503</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.035561137214273</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.051596716538498</v>
       </c>
       <c r="N11">
-        <v>0.4080208474562959</v>
+        <v>0.5024253557522584</v>
       </c>
       <c r="O11">
-        <v>1.972326959546791</v>
+        <v>1.725402448014648</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.575504191639368</v>
+        <v>1.119325525910341</v>
       </c>
       <c r="C12">
-        <v>1.782842717032111</v>
+        <v>0.09776891057748571</v>
       </c>
       <c r="D12">
-        <v>0.2234363845973348</v>
+        <v>0.08932248798252829</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.341680962791173</v>
+        <v>0.66490471354156</v>
       </c>
       <c r="G12">
-        <v>0.0007439647825424611</v>
+        <v>0.0007816508533572885</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7490688093415372</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.060959420410569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.221496609791217</v>
       </c>
       <c r="N12">
-        <v>0.3949886529556466</v>
+        <v>0.4914777330175042</v>
       </c>
       <c r="O12">
-        <v>2.022472057970774</v>
+        <v>1.749219776325418</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.536649789628086</v>
+        <v>1.113356546459954</v>
       </c>
       <c r="C13">
-        <v>1.772224306454689</v>
+        <v>0.09745999590016652</v>
       </c>
       <c r="D13">
-        <v>0.222253106524235</v>
+        <v>0.08893762075177847</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.32377566638857</v>
+        <v>0.6623456357759636</v>
       </c>
       <c r="G13">
-        <v>0.0007444968053894549</v>
+        <v>0.0007818728655878558</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7447046309907108</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.055489871317036</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.184642748763935</v>
       </c>
       <c r="N13">
-        <v>0.3977773993412086</v>
+        <v>0.4938257420915342</v>
       </c>
       <c r="O13">
-        <v>2.011611712647849</v>
+        <v>1.744054920282082</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.410319336578311</v>
+        <v>1.093895417556297</v>
       </c>
       <c r="C14">
-        <v>1.737700453112609</v>
+        <v>0.09645021818726462</v>
       </c>
       <c r="D14">
-        <v>0.21840380648338</v>
+        <v>0.08768145126951055</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.265735473438156</v>
+        <v>0.6540446192625922</v>
       </c>
       <c r="G14">
-        <v>0.0007462324907954973</v>
+        <v>0.0007825974308986583</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7305356952955577</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.037650855960095</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.065458187641951</v>
       </c>
       <c r="N14">
-        <v>0.4069406444524652</v>
+        <v>0.5015203062738109</v>
       </c>
       <c r="O14">
-        <v>1.976425369233169</v>
+        <v>1.727346103470438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.333225125986928</v>
+        <v>1.08197871603187</v>
       </c>
       <c r="C15">
-        <v>1.716632382894716</v>
+        <v>0.09582995673967076</v>
       </c>
       <c r="D15">
-        <v>0.2160532357744387</v>
+        <v>0.08691123475183815</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.230449726269939</v>
+        <v>0.6489938038345855</v>
       </c>
       <c r="G15">
-        <v>0.0007472962117683554</v>
+        <v>0.0007830416920486843</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7219046000342217</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.026722756027965</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.993198811705227</v>
       </c>
       <c r="N15">
-        <v>0.4126053023863889</v>
+        <v>0.5062618452856285</v>
       </c>
       <c r="O15">
-        <v>1.955047012779872</v>
+        <v>1.717213550460485</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.895553976380484</v>
+        <v>1.013744909557261</v>
       </c>
       <c r="C16">
-        <v>1.597029365476658</v>
+        <v>0.09225083938677869</v>
       </c>
       <c r="D16">
-        <v>0.2026875987998125</v>
+        <v>0.08248620680140561</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.032089025359568</v>
+        <v>0.6205460275297909</v>
       </c>
       <c r="G16">
-        <v>0.0007534033552750901</v>
+        <v>0.000785595650651221</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6731327667158951</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9640820470582128</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.589499015917582</v>
       </c>
       <c r="N16">
-        <v>0.4458325983315277</v>
+        <v>0.5338612406241197</v>
       </c>
       <c r="O16">
-        <v>1.835061982484135</v>
+        <v>1.660649957756846</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.630456672046876</v>
+        <v>0.9719328046516296</v>
       </c>
       <c r="C17">
-        <v>1.524584322808437</v>
+        <v>0.09003519334640231</v>
       </c>
       <c r="D17">
-        <v>0.1945748960896623</v>
+        <v>0.07976221797205341</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.913604924884055</v>
+        <v>0.603514916634623</v>
       </c>
       <c r="G17">
-        <v>0.000757162892202734</v>
+        <v>0.0007871708993881927</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6437837781586353</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9256410541712512</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.350108263740267</v>
       </c>
       <c r="N17">
-        <v>0.4668683719323568</v>
+        <v>0.5511657616484129</v>
       </c>
       <c r="O17">
-        <v>1.763558347589168</v>
+        <v>1.627225702099935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.47912357982284</v>
+        <v>0.9478996592608553</v>
       </c>
       <c r="C18">
-        <v>1.483226536741768</v>
+        <v>0.08875419020828446</v>
       </c>
       <c r="D18">
-        <v>0.1899380596282327</v>
+        <v>0.07819222793718694</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.846547103746616</v>
+        <v>0.593865297554693</v>
       </c>
       <c r="G18">
-        <v>0.0007593311260680152</v>
+        <v>0.0007880805192024367</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.627096212150164</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9035263997085963</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.215095444535947</v>
       </c>
       <c r="N18">
-        <v>0.4791954758479662</v>
+        <v>0.5612527330255119</v>
       </c>
       <c r="O18">
-        <v>1.723147775500124</v>
+        <v>1.608445492245863</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.428071744804299</v>
+        <v>0.9397650818611396</v>
       </c>
       <c r="C19">
-        <v>1.469274146798966</v>
+        <v>0.08831938845005993</v>
       </c>
       <c r="D19">
-        <v>0.1883729282357223</v>
+        <v>0.07766012110993614</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.824022104420408</v>
+        <v>0.5906224614683282</v>
       </c>
       <c r="G19">
-        <v>0.0007600663535002251</v>
+        <v>0.0007883891559243258</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6214777745308453</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8960380129377654</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.169811565184162</v>
       </c>
       <c r="N19">
-        <v>0.4834073078308663</v>
+        <v>0.5646906927771411</v>
       </c>
       <c r="O19">
-        <v>1.709583406223175</v>
+        <v>1.602160996684802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.6585560560369</v>
+        <v>0.9763820814362987</v>
       </c>
       <c r="C20">
-        <v>1.532263412161853</v>
+        <v>0.09027175297275392</v>
       </c>
       <c r="D20">
-        <v>0.1954354130436116</v>
+        <v>0.08005252942125196</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.926102962940234</v>
+        <v>0.6053125918491418</v>
       </c>
       <c r="G20">
-        <v>0.0007567621010913975</v>
+        <v>0.0007870028509298035</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6468876725326282</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9297336243355687</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.375307087360156</v>
       </c>
       <c r="N20">
-        <v>0.4646052392342028</v>
+        <v>0.5493097376246041</v>
       </c>
       <c r="O20">
-        <v>1.771094657567787</v>
+        <v>1.630737236125213</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.447365204087475</v>
+        <v>1.099610825651212</v>
       </c>
       <c r="C21">
-        <v>1.747824333659139</v>
+        <v>0.09674718301350538</v>
       </c>
       <c r="D21">
-        <v>0.219532915314403</v>
+        <v>0.08805058224678675</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.282727395462388</v>
+        <v>0.6564757323091186</v>
       </c>
       <c r="G21">
-        <v>0.0007457225671588306</v>
+        <v>0.0007823845191809453</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7346873901652771</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.042890860652221</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.100307797302548</v>
       </c>
       <c r="N21">
-        <v>0.4042382856405027</v>
+        <v>0.4992542901048367</v>
       </c>
       <c r="O21">
-        <v>1.986723768009966</v>
+        <v>1.73223245966048</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.975444411505237</v>
+        <v>1.180314812222576</v>
       </c>
       <c r="C22">
-        <v>1.892148770569349</v>
+        <v>0.1009032289809682</v>
       </c>
       <c r="D22">
-        <v>0.2355990760027282</v>
+        <v>0.09324364821390674</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.527449056351713</v>
+        <v>0.6914034214715912</v>
       </c>
       <c r="G22">
-        <v>0.0007385357721038337</v>
+        <v>0.0007793873308673754</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7941624726346532</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.116793616343926</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.606461148233251</v>
       </c>
       <c r="N22">
-        <v>0.3670758827411795</v>
+        <v>0.4678021894037876</v>
       </c>
       <c r="O22">
-        <v>2.135294762449874</v>
+        <v>1.80306748187175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.692325995738827</v>
+        <v>1.137225414162771</v>
       </c>
       <c r="C23">
-        <v>1.814769290611707</v>
+        <v>0.09869301386883933</v>
       </c>
       <c r="D23">
-        <v>0.2269923282793229</v>
+        <v>0.09047545871776208</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.395668834064281</v>
+        <v>0.6726156272642498</v>
       </c>
       <c r="G23">
-        <v>0.0007423701802679877</v>
+        <v>0.0007809856480551989</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.762208298161724</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.077356202685138</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.33287363097908</v>
       </c>
       <c r="N23">
-        <v>0.386686724333245</v>
+        <v>0.4844698947196626</v>
       </c>
       <c r="O23">
-        <v>2.055233294802719</v>
+        <v>1.764820787320019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.64584900135435</v>
+        <v>0.9743705475297872</v>
       </c>
       <c r="C24">
-        <v>1.528790793963537</v>
+        <v>0.09016482662011782</v>
       </c>
       <c r="D24">
-        <v>0.1950462889892464</v>
+        <v>0.07992129181211993</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.920449317744584</v>
+        <v>0.604499423199286</v>
       </c>
       <c r="G24">
-        <v>0.0007569432772596141</v>
+        <v>0.0007870788130913991</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6454838278220478</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9278834181872071</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.363906634828624</v>
       </c>
       <c r="N24">
-        <v>0.4656276774268058</v>
+        <v>0.5501484158621821</v>
       </c>
       <c r="O24">
-        <v>1.767685331575876</v>
+        <v>1.629148319757547</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559798042792806</v>
+        <v>0.7992972528990379</v>
       </c>
       <c r="C25">
-        <v>1.231915430172478</v>
+        <v>0.08071703541525466</v>
       </c>
       <c r="D25">
-        <v>0.1616871216625242</v>
+        <v>0.0684146843481841</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.448758798925283</v>
+        <v>0.5365363009980513</v>
       </c>
       <c r="G25">
-        <v>0.0007728963904305504</v>
+        <v>0.0007937916656558268</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5268097988740266</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7664748138945043</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.418738257214088</v>
       </c>
       <c r="N25">
-        <v>0.5593823252764434</v>
+        <v>0.6260729006535719</v>
       </c>
       <c r="O25">
-        <v>1.484382137705992</v>
+        <v>1.499569806341867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.670700814326068</v>
+        <v>0.2343023818649499</v>
       </c>
       <c r="C2">
-        <v>0.07360583292495448</v>
+        <v>0.04130090163999256</v>
       </c>
       <c r="D2">
-        <v>0.05985267210128598</v>
+        <v>0.02907139404816661</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4903914720574249</v>
+        <v>0.6981695318995662</v>
       </c>
       <c r="G2">
-        <v>0.0007988983787116762</v>
+        <v>0.002425462473374959</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6474289244138163</v>
+        <v>0.1991907139332341</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.777570300590881</v>
+        <v>0.8862292840141777</v>
       </c>
       <c r="N2">
-        <v>0.6859969668613672</v>
+        <v>1.474153485319732</v>
       </c>
       <c r="O2">
-        <v>1.416148447474939</v>
+        <v>2.391647609380868</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.58363570193859</v>
+        <v>0.2082200658922204</v>
       </c>
       <c r="C3">
-        <v>0.06871008402858081</v>
+        <v>0.0394779188220582</v>
       </c>
       <c r="D3">
-        <v>0.05399842153961742</v>
+        <v>0.02699843040836925</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4611897489382883</v>
+        <v>0.695350594744184</v>
       </c>
       <c r="G3">
-        <v>0.0008024783923541182</v>
+        <v>0.002427727375901607</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5665780481807161</v>
+        <v>0.1739934342470377</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.366052379601413</v>
+        <v>0.7891297409906883</v>
       </c>
       <c r="N3">
-        <v>0.7289534780374609</v>
+        <v>1.491270294517424</v>
       </c>
       <c r="O3">
-        <v>1.36605558540279</v>
+        <v>2.394980879541748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5301849778785481</v>
+        <v>0.1922216416344327</v>
       </c>
       <c r="C4">
-        <v>0.06567140282174222</v>
+        <v>0.03834714272699813</v>
       </c>
       <c r="D4">
-        <v>0.05037927521046726</v>
+        <v>0.02571295495988579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4441760692453443</v>
+        <v>0.6940259653743297</v>
       </c>
       <c r="G4">
-        <v>0.000804739919367453</v>
+        <v>0.002429191739130007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5168323680202462</v>
+        <v>0.1584864544024356</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.121868383426587</v>
+        <v>0.7300310314882807</v>
       </c>
       <c r="N4">
-        <v>0.7564350721586486</v>
+        <v>1.502310626141941</v>
       </c>
       <c r="O4">
-        <v>1.338173236915694</v>
+        <v>2.398329195652224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5084005782510133</v>
+        <v>0.1857066839226604</v>
       </c>
       <c r="C5">
-        <v>0.06442554161495195</v>
+        <v>0.03788350752345337</v>
       </c>
       <c r="D5">
-        <v>0.04889836960843752</v>
+        <v>0.02518596188409816</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4374589291928217</v>
+        <v>0.6935882912189015</v>
       </c>
       <c r="G5">
-        <v>0.0008056780518360157</v>
+        <v>0.002429807071865565</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4965322442935616</v>
+        <v>0.1521586904472514</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.024136110972634</v>
+        <v>0.7060729073862433</v>
       </c>
       <c r="N5">
-        <v>0.7679048813471425</v>
+        <v>1.506942955706435</v>
       </c>
       <c r="O5">
-        <v>1.327492506061759</v>
+        <v>2.400020814841142</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5047829907090318</v>
+        <v>0.1846251670241656</v>
       </c>
       <c r="C6">
-        <v>0.06421822677182831</v>
+        <v>0.03780635139562349</v>
       </c>
       <c r="D6">
-        <v>0.048652102266459</v>
+        <v>0.02509826574573282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4363562027395957</v>
+        <v>0.693521783137129</v>
       </c>
       <c r="G6">
-        <v>0.0008058348435357848</v>
+        <v>0.002429910372072297</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4931596374074445</v>
+        <v>0.1511074671442998</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.008005335565443</v>
+        <v>0.7021020636914415</v>
       </c>
       <c r="N6">
-        <v>0.7698255855092597</v>
+        <v>1.507720198777438</v>
       </c>
       <c r="O6">
-        <v>1.325758987776723</v>
+        <v>2.400321461467968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5298912033240128</v>
+        <v>0.1921337596967874</v>
       </c>
       <c r="C7">
-        <v>0.06565463059280319</v>
+        <v>0.0383409013984064</v>
       </c>
       <c r="D7">
-        <v>0.05035932766514861</v>
+        <v>0.02570586046186918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.444084622912186</v>
+        <v>0.6940196492865169</v>
       </c>
       <c r="G7">
-        <v>0.0008047525035710934</v>
+        <v>0.002429199962442388</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5165587116138681</v>
+        <v>0.1584011499683697</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.120543585979277</v>
+        <v>0.7297074250801927</v>
       </c>
       <c r="N7">
-        <v>0.7565886707949936</v>
+        <v>1.502372559764542</v>
       </c>
       <c r="O7">
-        <v>1.3380264858354</v>
+        <v>2.398350685017888</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6406763036719667</v>
+        <v>0.225306094454794</v>
       </c>
       <c r="C8">
-        <v>0.0719249779714346</v>
+        <v>0.04067474238141244</v>
       </c>
       <c r="D8">
-        <v>0.05783931365228057</v>
+        <v>0.02835928511102992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4801235863026747</v>
+        <v>0.6971132374856523</v>
       </c>
       <c r="G8">
-        <v>0.0008001199951208982</v>
+        <v>0.002426228150156407</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6195714321166435</v>
+        <v>0.1905103711565204</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.633683349384754</v>
+        <v>0.8526376725037181</v>
       </c>
       <c r="N8">
-        <v>0.7005742949013367</v>
+        <v>1.47994518598145</v>
       </c>
       <c r="O8">
-        <v>1.398253915939819</v>
+        <v>2.392526653463335</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8582089383814093</v>
+        <v>0.2904690256945344</v>
       </c>
       <c r="C9">
-        <v>0.08392682426484299</v>
+        <v>0.04515863934734909</v>
       </c>
       <c r="D9">
-        <v>0.07230541152964776</v>
+        <v>0.03346085499073581</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5587727407053578</v>
+        <v>0.706405192592328</v>
       </c>
       <c r="G9">
-        <v>0.0007915074709954876</v>
+        <v>0.002420982537670299</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8208718279933862</v>
+        <v>0.2531761557849848</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.726866469575512</v>
+        <v>1.098116391001597</v>
       </c>
       <c r="N9">
-        <v>0.5998503527540535</v>
+        <v>1.440178767550872</v>
       </c>
       <c r="O9">
-        <v>1.541207155270484</v>
+        <v>2.391444174997531</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.018518233181908</v>
+        <v>0.3383948406939794</v>
       </c>
       <c r="C10">
-        <v>0.09250271311879743</v>
+        <v>0.04839419070436435</v>
       </c>
       <c r="D10">
-        <v>0.08279658087143815</v>
+        <v>0.03714552092529999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6225098027331484</v>
+        <v>0.715203545885899</v>
       </c>
       <c r="G10">
-        <v>0.0007854163563192006</v>
+        <v>0.002417479651504852</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9684678160631961</v>
+        <v>0.299015537500253</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.617202990196844</v>
+        <v>1.281570784205456</v>
       </c>
       <c r="N10">
-        <v>0.531905050361015</v>
+        <v>1.413535589316993</v>
       </c>
       <c r="O10">
-        <v>1.66452585287675</v>
+        <v>2.396969749277531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.091616355688501</v>
+        <v>0.3602050338549532</v>
       </c>
       <c r="C11">
-        <v>0.09633170679722269</v>
+        <v>0.04985290802301279</v>
       </c>
       <c r="D11">
-        <v>0.08753420775041576</v>
+        <v>0.03880770952491019</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.653076762613864</v>
+        <v>0.7196355188453936</v>
       </c>
       <c r="G11">
-        <v>0.0007826823597528392</v>
+        <v>0.002415961516911196</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.035561137214273</v>
+        <v>0.3198217799314875</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.051596716538498</v>
+        <v>1.365794437404716</v>
       </c>
       <c r="N11">
-        <v>0.5024253557522584</v>
+        <v>1.401974655637243</v>
       </c>
       <c r="O11">
-        <v>1.725402448014648</v>
+        <v>2.400860275768821</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.119325525910341</v>
+        <v>0.3684648076774693</v>
       </c>
       <c r="C12">
-        <v>0.09776891057748571</v>
+        <v>0.05040335026421872</v>
       </c>
       <c r="D12">
-        <v>0.08932248798252829</v>
+        <v>0.03943509469959139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.66490471354156</v>
+        <v>0.7213756280023347</v>
       </c>
       <c r="G12">
-        <v>0.0007816508533572885</v>
+        <v>0.002415397411740208</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.060959420410569</v>
+        <v>0.3276934987398761</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.221496609791217</v>
+        <v>1.397805737197814</v>
       </c>
       <c r="N12">
-        <v>0.4914777330175042</v>
+        <v>1.397677365554788</v>
       </c>
       <c r="O12">
-        <v>1.749219776325418</v>
+        <v>2.402531801092579</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.113356546459954</v>
+        <v>0.366685893154056</v>
       </c>
       <c r="C13">
-        <v>0.09745999590016652</v>
+        <v>0.05028488988169499</v>
       </c>
       <c r="D13">
-        <v>0.08893762075177847</v>
+        <v>0.03930006784861462</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6623456357759636</v>
+        <v>0.7209981142628834</v>
       </c>
       <c r="G13">
-        <v>0.0007818728655878558</v>
+        <v>0.002415518423224113</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.055489871317036</v>
+        <v>0.3259985092606712</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.184642748763935</v>
+        <v>1.390906186071916</v>
       </c>
       <c r="N13">
-        <v>0.4938257420915342</v>
+        <v>1.398599277006991</v>
       </c>
       <c r="O13">
-        <v>1.744054920282082</v>
+        <v>2.402162985886775</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.093895417556297</v>
+        <v>0.3608845586860241</v>
       </c>
       <c r="C14">
-        <v>0.09645021818726462</v>
+        <v>0.04989823246005187</v>
       </c>
       <c r="D14">
-        <v>0.08768145126951055</v>
+        <v>0.03885936617901109</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6540446192625922</v>
+        <v>0.7197774394911249</v>
       </c>
       <c r="G14">
-        <v>0.0007825974308986583</v>
+        <v>0.002415914891939857</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.037650855960095</v>
+        <v>0.3204695371685204</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.065458187641951</v>
+        <v>1.368425628094101</v>
       </c>
       <c r="N14">
-        <v>0.5015203062738109</v>
+        <v>1.401619498945109</v>
       </c>
       <c r="O14">
-        <v>1.727346103470438</v>
+        <v>2.400993818037193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.08197871603187</v>
+        <v>0.3573311537883512</v>
       </c>
       <c r="C15">
-        <v>0.09582995673967076</v>
+        <v>0.04966113914963444</v>
       </c>
       <c r="D15">
-        <v>0.08691123475183815</v>
+        <v>0.03858915561828979</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6489938038345855</v>
+        <v>0.7190377927851941</v>
       </c>
       <c r="G15">
-        <v>0.0007830416920486843</v>
+        <v>0.002416159142615052</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.026722756027965</v>
+        <v>0.3170819358718404</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.993198811705227</v>
+        <v>1.35467116690846</v>
       </c>
       <c r="N15">
-        <v>0.5062618452856285</v>
+        <v>1.403479971841428</v>
       </c>
       <c r="O15">
-        <v>1.717213550460485</v>
+        <v>2.400303497275701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.013744909557261</v>
+        <v>0.3369696219880041</v>
       </c>
       <c r="C16">
-        <v>0.09225083938677869</v>
+        <v>0.04829859108408385</v>
       </c>
       <c r="D16">
-        <v>0.08248620680140561</v>
+        <v>0.03703660828875144</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6205460275297909</v>
+        <v>0.7149225538571997</v>
       </c>
       <c r="G16">
-        <v>0.000785595650651221</v>
+        <v>0.002417580376643075</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9640820470582128</v>
+        <v>0.2976548264104224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.589499015917582</v>
+        <v>1.276082645873601</v>
       </c>
       <c r="N16">
-        <v>0.5338612406241197</v>
+        <v>1.414302390548308</v>
       </c>
       <c r="O16">
-        <v>1.660649957756846</v>
+        <v>2.396743224146945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9719328046516296</v>
+        <v>0.3244803064532107</v>
       </c>
       <c r="C17">
-        <v>0.09003519334640231</v>
+        <v>0.0474593072250542</v>
       </c>
       <c r="D17">
-        <v>0.07976221797205341</v>
+        <v>0.03608056159756501</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.603514916634623</v>
+        <v>0.7125080415463216</v>
       </c>
       <c r="G17">
-        <v>0.0007871708993881927</v>
+        <v>0.002418471516202184</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9256410541712512</v>
+        <v>0.2857247094698039</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.350108263740267</v>
+        <v>1.228073105215969</v>
       </c>
       <c r="N17">
-        <v>0.5511657616484129</v>
+        <v>1.421084936904542</v>
       </c>
       <c r="O17">
-        <v>1.627225702099935</v>
+        <v>2.394911962748125</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9478996592608553</v>
+        <v>0.3172976121268505</v>
       </c>
       <c r="C18">
-        <v>0.08875419020828446</v>
+        <v>0.04697533856008107</v>
       </c>
       <c r="D18">
-        <v>0.07819222793718694</v>
+        <v>0.0355293548650053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.593865297554693</v>
+        <v>0.7111597070900686</v>
       </c>
       <c r="G18">
-        <v>0.0007880805192024367</v>
+        <v>0.002418991171244991</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9035263997085963</v>
+        <v>0.2788584911507712</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.215095444535947</v>
+        <v>1.200531271127048</v>
       </c>
       <c r="N18">
-        <v>0.5612527330255119</v>
+        <v>1.425038700313113</v>
       </c>
       <c r="O18">
-        <v>1.608445492245863</v>
+        <v>2.393988255119865</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9397650818611396</v>
+        <v>0.3148658328182137</v>
       </c>
       <c r="C19">
-        <v>0.08831938845005993</v>
+        <v>0.04681126456810603</v>
       </c>
       <c r="D19">
-        <v>0.07766012110993614</v>
+        <v>0.03534250123775706</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5906224614683282</v>
+        <v>0.7107101265259814</v>
       </c>
       <c r="G19">
-        <v>0.0007883891559243258</v>
+        <v>0.002419168337969842</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8960380129377654</v>
+        <v>0.2765329788223596</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.169811565184162</v>
+        <v>1.191218232118686</v>
       </c>
       <c r="N19">
-        <v>0.5646906927771411</v>
+        <v>1.426386409295318</v>
       </c>
       <c r="O19">
-        <v>1.602160996684802</v>
+        <v>2.393697751883849</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9763820814362987</v>
+        <v>0.3258097331330703</v>
       </c>
       <c r="C20">
-        <v>0.09027175297275392</v>
+        <v>0.04754877859236473</v>
       </c>
       <c r="D20">
-        <v>0.08005252942125196</v>
+        <v>0.03618247066967228</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6053125918491418</v>
+        <v>0.7127608858998471</v>
       </c>
       <c r="G20">
-        <v>0.0007870028509298035</v>
+        <v>0.002418375918943051</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9297336243355687</v>
+        <v>0.2869951425498698</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.375307087360156</v>
+        <v>1.233176302545786</v>
       </c>
       <c r="N20">
-        <v>0.5493097376246041</v>
+        <v>1.420357475822975</v>
       </c>
       <c r="O20">
-        <v>1.630737236125213</v>
+        <v>2.395093490114164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.099610825651212</v>
+        <v>0.362588535463118</v>
       </c>
       <c r="C21">
-        <v>0.09674718301350538</v>
+        <v>0.05001185623983417</v>
       </c>
       <c r="D21">
-        <v>0.08805058224678675</v>
+        <v>0.03898886687567682</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6564757323091186</v>
+        <v>0.7201343031798615</v>
       </c>
       <c r="G21">
-        <v>0.0007823845191809453</v>
+        <v>0.002415798147334192</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.042890860652221</v>
+        <v>0.3220937283726073</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.100307797302548</v>
+        <v>1.375025463802231</v>
       </c>
       <c r="N21">
-        <v>0.4992542901048367</v>
+        <v>1.400730198092294</v>
       </c>
       <c r="O21">
-        <v>1.73223245966048</v>
+        <v>2.40133184789417</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.180314812222576</v>
+        <v>0.3866296163721188</v>
       </c>
       <c r="C22">
-        <v>0.1009032289809682</v>
+        <v>0.0516102745070981</v>
       </c>
       <c r="D22">
-        <v>0.09324364821390674</v>
+        <v>0.04081104451772433</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6914034214715912</v>
+        <v>0.7253135979747611</v>
       </c>
       <c r="G22">
-        <v>0.0007793873308673754</v>
+        <v>0.00241417622995499</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.116793616343926</v>
+        <v>0.3449907572517645</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.606461148233251</v>
+        <v>1.468421103747616</v>
       </c>
       <c r="N22">
-        <v>0.4678021894037876</v>
+        <v>1.388372430250197</v>
       </c>
       <c r="O22">
-        <v>1.80306748187175</v>
+        <v>2.406564756916083</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.137225414162771</v>
+        <v>0.373798236090721</v>
       </c>
       <c r="C23">
-        <v>0.09869301386883933</v>
+        <v>0.05075822365282079</v>
       </c>
       <c r="D23">
-        <v>0.09047545871776208</v>
+        <v>0.03983962156905818</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6726156272642498</v>
+        <v>0.7225163238670973</v>
       </c>
       <c r="G23">
-        <v>0.0007809856480551989</v>
+        <v>0.00241503614926053</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.077356202685138</v>
+        <v>0.3327741811473857</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.33287363097908</v>
+        <v>1.418508689540928</v>
       </c>
       <c r="N23">
-        <v>0.4844698947196626</v>
+        <v>1.394924958572208</v>
       </c>
       <c r="O23">
-        <v>1.764820787320019</v>
+        <v>2.40366601093919</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9743705475297872</v>
+        <v>0.3252087068328819</v>
       </c>
       <c r="C24">
-        <v>0.09016482662011782</v>
+        <v>0.04750833310874469</v>
       </c>
       <c r="D24">
-        <v>0.07992129181211993</v>
+        <v>0.03613640244326177</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.604499423199286</v>
+        <v>0.7126464510004169</v>
       </c>
       <c r="G24">
-        <v>0.0007870788130913991</v>
+        <v>0.002418419115756419</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9278834181872071</v>
+        <v>0.2864208028759663</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.363906634828624</v>
+        <v>1.230868962261184</v>
       </c>
       <c r="N24">
-        <v>0.5501484158621821</v>
+        <v>1.420686191587372</v>
       </c>
       <c r="O24">
-        <v>1.629148319757547</v>
+        <v>2.395011019466693</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7992972528990379</v>
+        <v>0.2728305581805728</v>
       </c>
       <c r="C25">
-        <v>0.08071703541525466</v>
+        <v>0.04395578605002015</v>
       </c>
       <c r="D25">
-        <v>0.0684146843481841</v>
+        <v>0.03209178710967109</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5365363009980513</v>
+        <v>0.7035456281412351</v>
       </c>
       <c r="G25">
-        <v>0.0007937916656558268</v>
+        <v>0.002422339690695785</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7664748138945043</v>
+        <v>0.2362574199590881</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.418738257214088</v>
+        <v>1.031193532266926</v>
       </c>
       <c r="N25">
-        <v>0.6260729006535719</v>
+        <v>1.450485094428196</v>
       </c>
       <c r="O25">
-        <v>1.499569806341867</v>
+        <v>2.390628337834158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2343023818649499</v>
+        <v>0.6707008143259543</v>
       </c>
       <c r="C2">
-        <v>0.04130090163999256</v>
+        <v>0.07360583292494027</v>
       </c>
       <c r="D2">
-        <v>0.02907139404816661</v>
+        <v>0.05985267210130729</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6981695318995662</v>
+        <v>0.4903914720574249</v>
       </c>
       <c r="G2">
-        <v>0.002425462473374959</v>
+        <v>0.0007988983787709066</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1991907139332341</v>
+        <v>0.6474289244137026</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8862292840141777</v>
+        <v>2.777570300590895</v>
       </c>
       <c r="N2">
-        <v>1.474153485319732</v>
+        <v>0.6859969668613708</v>
       </c>
       <c r="O2">
-        <v>2.391647609380868</v>
+        <v>1.416148447474825</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2082200658922204</v>
+        <v>0.58363570193859</v>
       </c>
       <c r="C3">
-        <v>0.0394779188220582</v>
+        <v>0.0687100840285737</v>
       </c>
       <c r="D3">
-        <v>0.02699843040836925</v>
+        <v>0.05399842153969558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.695350594744184</v>
+        <v>0.4611897489382955</v>
       </c>
       <c r="G3">
-        <v>0.002427727375901607</v>
+        <v>0.0008024783923538406</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1739934342470377</v>
+        <v>0.566578048180844</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7891297409906883</v>
+        <v>2.366052379601442</v>
       </c>
       <c r="N3">
-        <v>1.491270294517424</v>
+        <v>0.7289534780374574</v>
       </c>
       <c r="O3">
-        <v>2.394980879541748</v>
+        <v>1.366055585402833</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1922216416344327</v>
+        <v>0.530184977878605</v>
       </c>
       <c r="C4">
-        <v>0.03834714272699813</v>
+        <v>0.06567140282190564</v>
       </c>
       <c r="D4">
-        <v>0.02571295495988579</v>
+        <v>0.05037927521046726</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6940259653743297</v>
+        <v>0.4441760692453514</v>
       </c>
       <c r="G4">
-        <v>0.002429191739130007</v>
+        <v>0.0008047399193670157</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1584864544024356</v>
+        <v>0.5168323680202462</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7300310314882807</v>
+        <v>2.121868383426587</v>
       </c>
       <c r="N4">
-        <v>1.502310626141941</v>
+        <v>0.7564350721586948</v>
       </c>
       <c r="O4">
-        <v>2.398329195652224</v>
+        <v>1.338173236915665</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1857066839226604</v>
+        <v>0.5084005782510133</v>
       </c>
       <c r="C5">
-        <v>0.03788350752345337</v>
+        <v>0.06442554161495906</v>
       </c>
       <c r="D5">
-        <v>0.02518596188409816</v>
+        <v>0.04889836960844463</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6935882912189015</v>
+        <v>0.4374589291928075</v>
       </c>
       <c r="G5">
-        <v>0.002429807071865565</v>
+        <v>0.0008056780518179152</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1521586904472514</v>
+        <v>0.4965322442935758</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7060729073862433</v>
+        <v>2.024136110972663</v>
       </c>
       <c r="N5">
-        <v>1.506942955706435</v>
+        <v>0.7679048813470786</v>
       </c>
       <c r="O5">
-        <v>2.400020814841142</v>
+        <v>1.327492506061731</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1846251670241656</v>
+        <v>0.5047829907088754</v>
       </c>
       <c r="C6">
-        <v>0.03780635139562349</v>
+        <v>0.06421822677199884</v>
       </c>
       <c r="D6">
-        <v>0.02509826574573282</v>
+        <v>0.04865210226656558</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.693521783137129</v>
+        <v>0.4363562027395957</v>
       </c>
       <c r="G6">
-        <v>0.002429910372072297</v>
+        <v>0.0008058348436138797</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1511074671442998</v>
+        <v>0.493159637407345</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7021020636914415</v>
+        <v>2.008005335565457</v>
       </c>
       <c r="N6">
-        <v>1.507720198777438</v>
+        <v>0.769825585509242</v>
       </c>
       <c r="O6">
-        <v>2.400321461467968</v>
+        <v>1.325758987776581</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1921337596967874</v>
+        <v>0.5298912033240128</v>
       </c>
       <c r="C7">
-        <v>0.0383409013984064</v>
+        <v>0.06565463059257581</v>
       </c>
       <c r="D7">
-        <v>0.02570586046186918</v>
+        <v>0.05035932766521967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6940196492865169</v>
+        <v>0.444084622912186</v>
       </c>
       <c r="G7">
-        <v>0.002429199962442388</v>
+        <v>0.0008047525035710379</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1584011499683697</v>
+        <v>0.5165587116138681</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7297074250801927</v>
+        <v>2.120543585979306</v>
       </c>
       <c r="N7">
-        <v>1.502372559764542</v>
+        <v>0.7565886707949936</v>
       </c>
       <c r="O7">
-        <v>2.398350685017888</v>
+        <v>1.338026485835414</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.225306094454794</v>
+        <v>0.6406763036721088</v>
       </c>
       <c r="C8">
-        <v>0.04067474238141244</v>
+        <v>0.07192497797127118</v>
       </c>
       <c r="D8">
-        <v>0.02835928511102992</v>
+        <v>0.05783931365227346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6971132374856523</v>
+        <v>0.4801235863026676</v>
       </c>
       <c r="G8">
-        <v>0.002426228150156407</v>
+        <v>0.0008001199951204936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1905103711565204</v>
+        <v>0.6195714321165724</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8526376725037181</v>
+        <v>2.633683349384768</v>
       </c>
       <c r="N8">
-        <v>1.47994518598145</v>
+        <v>0.7005742949013154</v>
       </c>
       <c r="O8">
-        <v>2.392526653463335</v>
+        <v>1.398253915939733</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2904690256945344</v>
+        <v>0.8582089383814093</v>
       </c>
       <c r="C9">
-        <v>0.04515863934734909</v>
+        <v>0.08392682426494247</v>
       </c>
       <c r="D9">
-        <v>0.03346085499073581</v>
+        <v>0.07230541152977565</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.706405192592328</v>
+        <v>0.5587727407053578</v>
       </c>
       <c r="G9">
-        <v>0.002420982537670299</v>
+        <v>0.0007915074709954681</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2531761557849848</v>
+        <v>0.8208718279933578</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.098116391001597</v>
+        <v>3.726866469575526</v>
       </c>
       <c r="N9">
-        <v>1.440178767550872</v>
+        <v>0.5998503527541033</v>
       </c>
       <c r="O9">
-        <v>2.391444174997531</v>
+        <v>1.541207155270399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3383948406939794</v>
+        <v>1.018518233181652</v>
       </c>
       <c r="C10">
-        <v>0.04839419070436435</v>
+        <v>0.09250271311879033</v>
       </c>
       <c r="D10">
-        <v>0.03714552092529999</v>
+        <v>0.08279658087133157</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.715203545885899</v>
+        <v>0.6225098027331484</v>
       </c>
       <c r="G10">
-        <v>0.002417479651504852</v>
+        <v>0.0007854163562900363</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.299015537500253</v>
+        <v>0.9684678160631961</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.281570784205456</v>
+        <v>4.617202990196873</v>
       </c>
       <c r="N10">
-        <v>1.413535589316993</v>
+        <v>0.531905050361015</v>
       </c>
       <c r="O10">
-        <v>2.396969749277531</v>
+        <v>1.66452585287675</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3602050338549532</v>
+        <v>1.091616355688387</v>
       </c>
       <c r="C11">
-        <v>0.04985290802301279</v>
+        <v>0.09633170679699532</v>
       </c>
       <c r="D11">
-        <v>0.03880770952491019</v>
+        <v>0.08753420775051524</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7196355188453936</v>
+        <v>0.653076762613864</v>
       </c>
       <c r="G11">
-        <v>0.002415961516911196</v>
+        <v>0.0007826823597800632</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3198217799314875</v>
+        <v>1.035561137214245</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.365794437404716</v>
+        <v>5.051596716538498</v>
       </c>
       <c r="N11">
-        <v>1.401974655637243</v>
+        <v>0.5024253557522478</v>
       </c>
       <c r="O11">
-        <v>2.400860275768821</v>
+        <v>1.72540244801462</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3684648076774693</v>
+        <v>1.11932552591054</v>
       </c>
       <c r="C12">
-        <v>0.05040335026421872</v>
+        <v>0.09776891057782677</v>
       </c>
       <c r="D12">
-        <v>0.03943509469959139</v>
+        <v>0.08932248798246434</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7213756280023347</v>
+        <v>0.66490471354156</v>
       </c>
       <c r="G12">
-        <v>0.002415397411740208</v>
+        <v>0.0007816508533547428</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3276934987398761</v>
+        <v>1.060959420410569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.397805737197814</v>
+        <v>5.221496609791231</v>
       </c>
       <c r="N12">
-        <v>1.397677365554788</v>
+        <v>0.4914777330175042</v>
       </c>
       <c r="O12">
-        <v>2.402531801092579</v>
+        <v>1.749219776325418</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.366685893154056</v>
+        <v>1.113356546460125</v>
       </c>
       <c r="C13">
-        <v>0.05028488988169499</v>
+        <v>0.09745999590037968</v>
       </c>
       <c r="D13">
-        <v>0.03930006784861462</v>
+        <v>0.08893762075211953</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7209981142628834</v>
+        <v>0.6623456357759778</v>
       </c>
       <c r="G13">
-        <v>0.002415518423224113</v>
+        <v>0.0007818728656177617</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3259985092606712</v>
+        <v>1.055489871316979</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.390906186071916</v>
+        <v>5.184642748763963</v>
       </c>
       <c r="N13">
-        <v>1.398599277006991</v>
+        <v>0.4938257420915413</v>
       </c>
       <c r="O13">
-        <v>2.402162985886775</v>
+        <v>1.744054920282025</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3608845586860241</v>
+        <v>1.093895417556297</v>
       </c>
       <c r="C14">
-        <v>0.04989823246005187</v>
+        <v>0.096450218187492</v>
       </c>
       <c r="D14">
-        <v>0.03885936617901109</v>
+        <v>0.08768145126939686</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7197774394911249</v>
+        <v>0.6540446192625922</v>
       </c>
       <c r="G14">
-        <v>0.002415914891939857</v>
+        <v>0.000782597430848242</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3204695371685204</v>
+        <v>1.037650855960038</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.368425628094101</v>
+        <v>5.065458187641923</v>
       </c>
       <c r="N14">
-        <v>1.401619498945109</v>
+        <v>0.5015203062738287</v>
       </c>
       <c r="O14">
-        <v>2.400993818037193</v>
+        <v>1.727346103470438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3573311537883512</v>
+        <v>1.081978716031983</v>
       </c>
       <c r="C15">
-        <v>0.04966113914963444</v>
+        <v>0.09582995673970629</v>
       </c>
       <c r="D15">
-        <v>0.03858915561828979</v>
+        <v>0.08691123475172446</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7190377927851941</v>
+        <v>0.6489938038345713</v>
       </c>
       <c r="G15">
-        <v>0.002416159142615052</v>
+        <v>0.0007830416920741913</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3170819358718404</v>
+        <v>1.026722756027851</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.35467116690846</v>
+        <v>4.993198811705255</v>
       </c>
       <c r="N15">
-        <v>1.403479971841428</v>
+        <v>0.5062618452856178</v>
       </c>
       <c r="O15">
-        <v>2.400303497275701</v>
+        <v>1.717213550460372</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3369696219880041</v>
+        <v>1.013744909557232</v>
       </c>
       <c r="C16">
-        <v>0.04829859108408385</v>
+        <v>0.09225083938677869</v>
       </c>
       <c r="D16">
-        <v>0.03703660828875144</v>
+        <v>0.08248620680131324</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7149225538571997</v>
+        <v>0.6205460275297767</v>
       </c>
       <c r="G16">
-        <v>0.002417580376643075</v>
+        <v>0.0007855956505411527</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2976548264104224</v>
+        <v>0.9640820470582128</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.276082645873601</v>
+        <v>4.58949901591761</v>
       </c>
       <c r="N16">
-        <v>1.414302390548308</v>
+        <v>0.5338612406241161</v>
       </c>
       <c r="O16">
-        <v>2.396743224146945</v>
+        <v>1.66064995775676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3244803064532107</v>
+        <v>0.9719328046516011</v>
       </c>
       <c r="C17">
-        <v>0.0474593072250542</v>
+        <v>0.09003519334684995</v>
       </c>
       <c r="D17">
-        <v>0.03608056159756501</v>
+        <v>0.07976221797205341</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7125080415463216</v>
+        <v>0.6035149166346372</v>
       </c>
       <c r="G17">
-        <v>0.002418471516202184</v>
+        <v>0.000787170899387743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2857247094698039</v>
+        <v>0.9256410541712512</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.228073105215969</v>
+        <v>4.350108263740239</v>
       </c>
       <c r="N17">
-        <v>1.421084936904542</v>
+        <v>0.5511657616484094</v>
       </c>
       <c r="O17">
-        <v>2.394911962748125</v>
+        <v>1.627225702099935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3172976121268505</v>
+        <v>0.9478996592608837</v>
       </c>
       <c r="C18">
-        <v>0.04697533856008107</v>
+        <v>0.08875419020844078</v>
       </c>
       <c r="D18">
-        <v>0.0355293548650053</v>
+        <v>0.07819222793730773</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7111597070900686</v>
+        <v>0.5938652975546859</v>
       </c>
       <c r="G18">
-        <v>0.002418991171244991</v>
+        <v>0.0007880805191752189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2788584911507712</v>
+        <v>0.9035263997085963</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.200531271127048</v>
+        <v>4.215095444535919</v>
       </c>
       <c r="N18">
-        <v>1.425038700313113</v>
+        <v>0.5612527330255119</v>
       </c>
       <c r="O18">
-        <v>2.393988255119865</v>
+        <v>1.608445492245892</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3148658328182137</v>
+        <v>0.9397650818612249</v>
       </c>
       <c r="C19">
-        <v>0.04681126456810603</v>
+        <v>0.08831938845028731</v>
       </c>
       <c r="D19">
-        <v>0.03534250123775706</v>
+        <v>0.07766012111020615</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7107101265259814</v>
+        <v>0.5906224614683282</v>
       </c>
       <c r="G19">
-        <v>0.002419168337969842</v>
+        <v>0.0007883891559819868</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2765329788223596</v>
+        <v>0.8960380129377654</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.191218232118686</v>
+        <v>4.169811565184162</v>
       </c>
       <c r="N19">
-        <v>1.426386409295318</v>
+        <v>0.564690692777134</v>
       </c>
       <c r="O19">
-        <v>2.393697751883849</v>
+        <v>1.602160996684802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3258097331330703</v>
+        <v>0.9763820814362703</v>
       </c>
       <c r="C20">
-        <v>0.04754877859236473</v>
+        <v>0.09027175297266865</v>
       </c>
       <c r="D20">
-        <v>0.03618247066967228</v>
+        <v>0.0800525294210459</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7127608858998471</v>
+        <v>0.6053125918491276</v>
       </c>
       <c r="G20">
-        <v>0.002418375918943051</v>
+        <v>0.0007870028509881182</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2869951425498698</v>
+        <v>0.9297336243355403</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.233176302545786</v>
+        <v>4.375307087360142</v>
       </c>
       <c r="N20">
-        <v>1.420357475822975</v>
+        <v>0.5493097376245899</v>
       </c>
       <c r="O20">
-        <v>2.395093490114164</v>
+        <v>1.630737236125185</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.362588535463118</v>
+        <v>1.099610825651098</v>
       </c>
       <c r="C21">
-        <v>0.05001185623983417</v>
+        <v>0.09674718301373275</v>
       </c>
       <c r="D21">
-        <v>0.03898886687567682</v>
+        <v>0.08805058224682938</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7201343031798615</v>
+        <v>0.6564757323091186</v>
       </c>
       <c r="G21">
-        <v>0.002415798147334192</v>
+        <v>0.0007823845191521135</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3220937283726073</v>
+        <v>1.042890860652221</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.375025463802231</v>
+        <v>5.100307797302563</v>
       </c>
       <c r="N21">
-        <v>1.400730198092294</v>
+        <v>0.4992542901048331</v>
       </c>
       <c r="O21">
-        <v>2.40133184789417</v>
+        <v>1.73223245966048</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3866296163721188</v>
+        <v>1.180314812222463</v>
       </c>
       <c r="C22">
-        <v>0.0516102745070981</v>
+        <v>0.1009032289812097</v>
       </c>
       <c r="D22">
-        <v>0.04081104451772433</v>
+        <v>0.09324364821391384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7253135979747611</v>
+        <v>0.6914034214715912</v>
       </c>
       <c r="G22">
-        <v>0.00241417622995499</v>
+        <v>0.0007793873308391679</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3449907572517645</v>
+        <v>1.116793616344069</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.468421103747616</v>
+        <v>5.60646114823335</v>
       </c>
       <c r="N22">
-        <v>1.388372430250197</v>
+        <v>0.4678021894037876</v>
       </c>
       <c r="O22">
-        <v>2.406564756916083</v>
+        <v>1.803067481871807</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.373798236090721</v>
+        <v>1.137225414162856</v>
       </c>
       <c r="C23">
-        <v>0.05075822365282079</v>
+        <v>0.09869301386882512</v>
       </c>
       <c r="D23">
-        <v>0.03983962156905818</v>
+        <v>0.09047545871787577</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7225163238670973</v>
+        <v>0.6726156272642498</v>
       </c>
       <c r="G23">
-        <v>0.00241503614926053</v>
+        <v>0.0007809856481117148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3327741811473857</v>
+        <v>1.077356202685166</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.418508689540928</v>
+        <v>5.332873630979108</v>
       </c>
       <c r="N23">
-        <v>1.394924958572208</v>
+        <v>0.4844698947196591</v>
       </c>
       <c r="O23">
-        <v>2.40366601093919</v>
+        <v>1.764820787320048</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3252087068328819</v>
+        <v>0.9743705475299578</v>
       </c>
       <c r="C24">
-        <v>0.04750833310874469</v>
+        <v>0.09016482662019598</v>
       </c>
       <c r="D24">
-        <v>0.03613640244326177</v>
+        <v>0.07992129181199914</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7126464510004169</v>
+        <v>0.604499423199286</v>
       </c>
       <c r="G24">
-        <v>0.002418419115756419</v>
+        <v>0.000787078813062094</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2864208028759663</v>
+        <v>0.9278834181872924</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.230868962261184</v>
+        <v>4.363906634828609</v>
       </c>
       <c r="N24">
-        <v>1.420686191587372</v>
+        <v>0.5501484158621182</v>
       </c>
       <c r="O24">
-        <v>2.395011019466693</v>
+        <v>1.629148319757547</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2728305581805728</v>
+        <v>0.7992972528991231</v>
       </c>
       <c r="C25">
-        <v>0.04395578605002015</v>
+        <v>0.08071703541525466</v>
       </c>
       <c r="D25">
-        <v>0.03209178710967109</v>
+        <v>0.06841468434827647</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7035456281412351</v>
+        <v>0.5365363009980442</v>
       </c>
       <c r="G25">
-        <v>0.002422339690695785</v>
+        <v>0.0007937916655978731</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2362574199590881</v>
+        <v>0.7664748138945328</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.031193532266926</v>
+        <v>3.418738257214102</v>
       </c>
       <c r="N25">
-        <v>1.450485094428196</v>
+        <v>0.6260729006535719</v>
       </c>
       <c r="O25">
-        <v>2.390628337834158</v>
+        <v>1.499569806341867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6707008143259543</v>
+        <v>2.166585336794185</v>
       </c>
       <c r="C2">
-        <v>0.07360583292494027</v>
+        <v>0.6230046031029701</v>
       </c>
       <c r="D2">
-        <v>0.05985267210130729</v>
+        <v>0.4400418029988202</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4903914720574249</v>
+        <v>0.7436452942747636</v>
       </c>
       <c r="G2">
-        <v>0.0007988983787709066</v>
+        <v>0.3307015984354251</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001578753392584842</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004192944736044257</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2666056060084259</v>
       </c>
       <c r="K2">
-        <v>0.6474289244137026</v>
+        <v>0.1820889611482777</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5338690687943597</v>
       </c>
       <c r="M2">
-        <v>2.777570300590895</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6859969668613708</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.416148447474825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8835895039446768</v>
+      </c>
+      <c r="Q2">
+        <v>1.208948489973722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.58363570193859</v>
+        <v>1.888490835336114</v>
       </c>
       <c r="C3">
-        <v>0.0687100840285737</v>
+        <v>0.54917412909262</v>
       </c>
       <c r="D3">
-        <v>0.05399842153969558</v>
+        <v>0.3932549615803396</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4611897489382955</v>
+        <v>0.6887952330274061</v>
       </c>
       <c r="G3">
-        <v>0.0008024783923538406</v>
+        <v>0.3059085228788021</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000648920835628175</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002954265275191048</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2588291269149963</v>
       </c>
       <c r="K3">
-        <v>0.566578048180844</v>
+        <v>0.1844474676674306</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4756384373627895</v>
       </c>
       <c r="M3">
-        <v>2.366052379601442</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7289534780374574</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.366055585402833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.863751766437133</v>
+      </c>
+      <c r="Q3">
+        <v>1.13983274658608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.530184977878605</v>
+        <v>1.716938100152987</v>
       </c>
       <c r="C4">
-        <v>0.06567140282190564</v>
+        <v>0.5040439832406207</v>
       </c>
       <c r="D4">
-        <v>0.05037927521046726</v>
+        <v>0.3645957145561738</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4441760692453514</v>
+        <v>0.6555341865293087</v>
       </c>
       <c r="G4">
-        <v>0.0008047399193670157</v>
+        <v>0.2909927509295258</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0002682752310445569</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002314591138836697</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2542783122712038</v>
       </c>
       <c r="K4">
-        <v>0.5168323680202462</v>
+        <v>0.1861172845629984</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4398432125184968</v>
       </c>
       <c r="M4">
-        <v>2.121868383426587</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7564350721586948</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.338173236915665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8522681936277507</v>
+      </c>
+      <c r="Q4">
+        <v>1.098508001887708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5084005782510133</v>
+        <v>1.645872182329271</v>
       </c>
       <c r="C5">
-        <v>0.06442554161495906</v>
+        <v>0.4864614702374297</v>
       </c>
       <c r="D5">
-        <v>0.04889836960844463</v>
+        <v>0.35305322781754</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4374589291928075</v>
+        <v>0.6416777309053856</v>
       </c>
       <c r="G5">
-        <v>0.0008056780518179152</v>
+        <v>0.2846697575287322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001581746665673123</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002139245387998034</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2523146538233618</v>
       </c>
       <c r="K5">
-        <v>0.4965322442935758</v>
+        <v>0.1866501568566932</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4252317514719124</v>
       </c>
       <c r="M5">
-        <v>2.024136110972663</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7679048813470786</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.327492506061731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8482280812384104</v>
+      </c>
+      <c r="Q5">
+        <v>1.080918394957763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5047829907088754</v>
+        <v>1.632891686459089</v>
       </c>
       <c r="C6">
-        <v>0.06421822677199884</v>
+        <v>0.4844797580512932</v>
       </c>
       <c r="D6">
-        <v>0.04865210226656558</v>
+        <v>0.3512872981661843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4363562027395957</v>
+        <v>0.6388939773252531</v>
       </c>
       <c r="G6">
-        <v>0.0008058348436138797</v>
+        <v>0.2832371775592151</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001422824919072863</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002188807898152234</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2517924159338563</v>
       </c>
       <c r="K6">
-        <v>0.493159637407345</v>
+        <v>0.186496347948097</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4227925334795657</v>
       </c>
       <c r="M6">
-        <v>2.008005335565457</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.769825585509242</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.325758987776581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8481443160897868</v>
+      </c>
+      <c r="Q6">
+        <v>1.076775386915813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5298912033240128</v>
+        <v>1.712780294248205</v>
       </c>
       <c r="C7">
-        <v>0.06565463059257581</v>
+        <v>0.5063671528904763</v>
       </c>
       <c r="D7">
-        <v>0.05035932766521967</v>
+        <v>0.3648502690809892</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.444084622912186</v>
+        <v>0.6540116673178602</v>
       </c>
       <c r="G7">
-        <v>0.0008047525035710379</v>
+        <v>0.2898495794717419</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0002655677141909507</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00250812070413442</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2537072314859472</v>
       </c>
       <c r="K7">
-        <v>0.5165587116138681</v>
+        <v>0.1854543286849442</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.439613736189159</v>
       </c>
       <c r="M7">
-        <v>2.120543585979306</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7565886707949936</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.338026485835414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8538023515768742</v>
+      </c>
+      <c r="Q7">
+        <v>1.094887331647527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6406763036721088</v>
+        <v>2.06658575571538</v>
       </c>
       <c r="C8">
-        <v>0.07192497797127118</v>
+        <v>0.6009219632802001</v>
       </c>
       <c r="D8">
-        <v>0.05783931365227346</v>
+        <v>0.4244401258277577</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4801235863026676</v>
+        <v>0.7228710622302046</v>
       </c>
       <c r="G8">
-        <v>0.0008001199951204936</v>
+        <v>0.3206825789277801</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001214301554196107</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003973925583488302</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2631567378063835</v>
       </c>
       <c r="K8">
-        <v>0.6195714321165724</v>
+        <v>0.1819725842447895</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5137549575874516</v>
       </c>
       <c r="M8">
-        <v>2.633683349384768</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7005742949013154</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.398253915939733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8787636932652276</v>
+      </c>
+      <c r="Q8">
+        <v>1.180394363840605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8582089383814093</v>
+        <v>2.75994475213065</v>
       </c>
       <c r="C9">
-        <v>0.08392682426494247</v>
+        <v>0.7835685693468122</v>
       </c>
       <c r="D9">
-        <v>0.07230541152977565</v>
+        <v>0.541247546458095</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5587727407053578</v>
+        <v>0.8639893338232127</v>
       </c>
       <c r="G9">
-        <v>0.0007915074709954681</v>
+        <v>0.3857547346963628</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004710576044475334</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007608684874326421</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2845558888553796</v>
       </c>
       <c r="K9">
-        <v>0.8208718279933578</v>
+        <v>0.1782029876418783</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6590857452672623</v>
       </c>
       <c r="M9">
-        <v>3.726866469575526</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5998503527541033</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.541207155270399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9305764843898743</v>
+      </c>
+      <c r="Q9">
+        <v>1.363789573247317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.018518233181652</v>
+        <v>3.254852462945792</v>
       </c>
       <c r="C10">
-        <v>0.09250271311879033</v>
+        <v>0.9156041769607555</v>
       </c>
       <c r="D10">
-        <v>0.08279658087133157</v>
+        <v>0.6115500563234093</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6225098027331484</v>
+        <v>0.954410319233034</v>
       </c>
       <c r="G10">
-        <v>0.0007854163562900363</v>
+        <v>0.4295872536555549</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008318253696042444</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01108567992383236</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2986507804806848</v>
       </c>
       <c r="K10">
-        <v>0.9684678160631961</v>
+        <v>0.1747529144567217</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7325488775341</v>
       </c>
       <c r="M10">
-        <v>4.617202990196873</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.531905050361015</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.66452585287675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9784846330069712</v>
+      </c>
+      <c r="Q10">
+        <v>1.486652280770443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.091616355688387</v>
+        <v>3.392274051971583</v>
       </c>
       <c r="C11">
-        <v>0.09633170679699532</v>
+        <v>0.9368401307832812</v>
       </c>
       <c r="D11">
-        <v>0.08753420775051524</v>
+        <v>0.509066743357522</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.653076762613864</v>
+        <v>0.8633720075572455</v>
       </c>
       <c r="G11">
-        <v>0.0007826823597800632</v>
+        <v>0.4011911886804143</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02627475829032022</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01253404627801302</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2813662196218019</v>
       </c>
       <c r="K11">
-        <v>1.035561137214245</v>
+        <v>0.1585869461872527</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5052918697404607</v>
       </c>
       <c r="M11">
-        <v>5.051596716538498</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5024253557522478</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.72540244801462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.049967095811709</v>
+      </c>
+      <c r="Q11">
+        <v>1.390407568624141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.11932552591054</v>
+        <v>3.407626626249794</v>
       </c>
       <c r="C12">
-        <v>0.09776891057782677</v>
+        <v>0.9222849175895362</v>
       </c>
       <c r="D12">
-        <v>0.08932248798246434</v>
+        <v>0.4162399618381443</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.66490471354156</v>
+        <v>0.7729841089879841</v>
       </c>
       <c r="G12">
-        <v>0.0007816508533547428</v>
+        <v>0.3701022925378652</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06414781336136599</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01267160080953555</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.264701183329521</v>
       </c>
       <c r="K12">
-        <v>1.060959420410569</v>
+        <v>0.1470298515691688</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3390661262358208</v>
       </c>
       <c r="M12">
-        <v>5.221496609791231</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4914777330175042</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.749219776325418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.099703346833238</v>
+      </c>
+      <c r="Q12">
+        <v>1.289646772962897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.113356546460125</v>
+        <v>3.324785463079365</v>
       </c>
       <c r="C13">
-        <v>0.09745999590037968</v>
+        <v>0.8835769959933373</v>
       </c>
       <c r="D13">
-        <v>0.08893762075211953</v>
+        <v>0.3265699215750857</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6623456357759778</v>
+        <v>0.6761243430062009</v>
       </c>
       <c r="G13">
-        <v>0.0007818728656177617</v>
+        <v>0.3335234307352124</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1188740834209199</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01209116821679146</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2466839050619427</v>
       </c>
       <c r="K13">
-        <v>1.055489871316979</v>
+        <v>0.1372457701383496</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2104828237824563</v>
       </c>
       <c r="M13">
-        <v>5.184642748763963</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4938257420915413</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.744054920282025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.13731233656668</v>
+      </c>
+      <c r="Q13">
+        <v>1.174337490256306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.093895417556297</v>
+        <v>3.221639989473715</v>
       </c>
       <c r="C14">
-        <v>0.096450218187492</v>
+        <v>0.8465388433934606</v>
       </c>
       <c r="D14">
-        <v>0.08768145126939686</v>
+        <v>0.2670811833581297</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6540446192625922</v>
+        <v>0.6062009110677522</v>
       </c>
       <c r="G14">
-        <v>0.000782597430848242</v>
+        <v>0.30550008459889</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1674562182783461</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01144848684256594</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2334545602788296</v>
       </c>
       <c r="K14">
-        <v>1.037650855960038</v>
+        <v>0.1311547834123434</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1435323716783401</v>
       </c>
       <c r="M14">
-        <v>5.065458187641923</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5015203062738287</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.727346103470438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.158666702301943</v>
+      </c>
+      <c r="Q14">
+        <v>1.087166334372284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.081978716031983</v>
+        <v>3.174592708524017</v>
       </c>
       <c r="C15">
-        <v>0.09582995673970629</v>
+        <v>0.8334827018525175</v>
       </c>
       <c r="D15">
-        <v>0.08691123475172446</v>
+        <v>0.2523180322372838</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6489938038345713</v>
+        <v>0.5870957924614686</v>
       </c>
       <c r="G15">
-        <v>0.0007830416920741913</v>
+        <v>0.2971522939466951</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1796724943126691</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01123767803011066</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2297818972798353</v>
       </c>
       <c r="K15">
-        <v>1.026722756027851</v>
+        <v>0.1298232996500666</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1300596272053021</v>
       </c>
       <c r="M15">
-        <v>4.993198811705255</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5062618452856178</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.717213550460372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.161678475725623</v>
+      </c>
+      <c r="Q15">
+        <v>1.06174607590043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.013744909557232</v>
+        <v>2.978430098678359</v>
       </c>
       <c r="C16">
-        <v>0.09225083938677869</v>
+        <v>0.786995350055804</v>
       </c>
       <c r="D16">
-        <v>0.08248620680131324</v>
+        <v>0.2430392660434393</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6205460275297767</v>
+        <v>0.5691497853264025</v>
       </c>
       <c r="G16">
-        <v>0.0007855956505411527</v>
+        <v>0.2856095718061056</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.165676290004356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009946455944129795</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2271673325272801</v>
       </c>
       <c r="K16">
-        <v>0.9640820470582128</v>
+        <v>0.1327815232430769</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1286286436451221</v>
       </c>
       <c r="M16">
-        <v>4.58949901591761</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5338612406241161</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.66064995775676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.131810094387248</v>
+      </c>
+      <c r="Q16">
+        <v>1.031626414562126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9719328046516011</v>
+        <v>2.882623313483862</v>
       </c>
       <c r="C17">
-        <v>0.09003519334684995</v>
+        <v>0.7710465061941818</v>
       </c>
       <c r="D17">
-        <v>0.07976221797205341</v>
+        <v>0.2663070563779542</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6035149166346372</v>
+        <v>0.5918473306135752</v>
       </c>
       <c r="G17">
-        <v>0.000787170899387743</v>
+        <v>0.2914911887844269</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1273212354198137</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009324030832297936</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.232157962795128</v>
       </c>
       <c r="K17">
-        <v>0.9256410541712512</v>
+        <v>0.1382617676919455</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1587872235494459</v>
       </c>
       <c r="M17">
-        <v>4.350108263740239</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5511657616484094</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.627225702099935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.097995353270576</v>
+      </c>
+      <c r="Q17">
+        <v>1.05444342565545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9478996592608837</v>
+        <v>2.864457837660154</v>
       </c>
       <c r="C18">
-        <v>0.08875419020844078</v>
+        <v>0.7773522626747535</v>
       </c>
       <c r="D18">
-        <v>0.07819222793730773</v>
+        <v>0.3248305218229177</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5938652975546859</v>
+        <v>0.6550746432987111</v>
       </c>
       <c r="G18">
-        <v>0.0007880805191752189</v>
+        <v>0.3141348729487987</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07457377627362405</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008941300422443454</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2447313297964797</v>
       </c>
       <c r="K18">
-        <v>0.9035263997085963</v>
+        <v>0.1471461648972561</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2399287011810003</v>
       </c>
       <c r="M18">
-        <v>4.215095444535919</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5612527330255119</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.608445492245892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.055995543584132</v>
+      </c>
+      <c r="Q18">
+        <v>1.128729118635391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9397650818612249</v>
+        <v>2.90365029601486</v>
       </c>
       <c r="C19">
-        <v>0.08831938845028731</v>
+        <v>0.8061257952980156</v>
       </c>
       <c r="D19">
-        <v>0.07766012111020615</v>
+        <v>0.415802588381581</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5906224614683282</v>
+        <v>0.7480578993529576</v>
       </c>
       <c r="G19">
-        <v>0.0007883891559819868</v>
+        <v>0.3477420996857035</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03017736799081661</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009262880408901886</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2618941646927624</v>
       </c>
       <c r="K19">
-        <v>0.8960380129377654</v>
+        <v>0.1575237283705668</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3872425546899336</v>
       </c>
       <c r="M19">
-        <v>4.169811565184162</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.564690692777134</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.602160996684802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.015248481218947</v>
+      </c>
+      <c r="Q19">
+        <v>1.235919314203784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9763820814362703</v>
+        <v>3.114498545888353</v>
       </c>
       <c r="C20">
-        <v>0.09027175297266865</v>
+        <v>0.8888523873407337</v>
       </c>
       <c r="D20">
-        <v>0.0800525294210459</v>
+        <v>0.5936679383141836</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6053125918491276</v>
+        <v>0.9256697966729206</v>
       </c>
       <c r="G20">
-        <v>0.0007870028509881182</v>
+        <v>0.4143967853291457</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007248768022094509</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0107550092506985</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.293059595292064</v>
       </c>
       <c r="K20">
-        <v>0.9297336243355403</v>
+        <v>0.1734623778428173</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7117502810755809</v>
       </c>
       <c r="M20">
-        <v>4.375307087360142</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5493097376245899</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.630737236125185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9712344381722602</v>
+      </c>
+      <c r="Q20">
+        <v>1.442631980897318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.099610825651098</v>
+        <v>3.509625546182178</v>
       </c>
       <c r="C21">
-        <v>0.09674718301373275</v>
+        <v>0.9967204295298302</v>
       </c>
       <c r="D21">
-        <v>0.08805058224682938</v>
+        <v>0.672915653512689</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6564757323091186</v>
+        <v>1.02078326272823</v>
       </c>
       <c r="G21">
-        <v>0.0007823845191521135</v>
+        <v>0.4579975218915564</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01065481419061058</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01369013892517756</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3088666476580784</v>
       </c>
       <c r="K21">
-        <v>1.042890860652221</v>
+        <v>0.1742634534456364</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.820157964678998</v>
       </c>
       <c r="M21">
-        <v>5.100307797302563</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4992542901048331</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.73223245966048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.000524918553495</v>
+      </c>
+      <c r="Q21">
+        <v>1.568486428033907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.180314812222463</v>
+        <v>3.766887875297812</v>
       </c>
       <c r="C22">
-        <v>0.1009032289812097</v>
+        <v>1.061646892258466</v>
       </c>
       <c r="D22">
-        <v>0.09324364821391384</v>
+        <v>0.7160222690132514</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6914034214715912</v>
+        <v>1.077565287768351</v>
       </c>
       <c r="G22">
-        <v>0.0007793873308391679</v>
+        <v>0.4855880231674945</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01308151442944949</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01549852745233604</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3188325129822971</v>
       </c>
       <c r="K22">
-        <v>1.116793616344069</v>
+        <v>0.1750836362501786</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8741247313637359</v>
       </c>
       <c r="M22">
-        <v>5.60646114823335</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4678021894037876</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.803067481871807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.020794134405065</v>
+      </c>
+      <c r="Q22">
+        <v>1.648047206112437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.137225414162856</v>
+        <v>3.63354334514753</v>
       </c>
       <c r="C23">
-        <v>0.09869301386882512</v>
+        <v>1.023823858403517</v>
       </c>
       <c r="D23">
-        <v>0.09047545871787577</v>
+        <v>0.6925006250402816</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6726156272642498</v>
+        <v>1.048776703223453</v>
       </c>
       <c r="G23">
-        <v>0.0007809856481117148</v>
+        <v>0.4720684583993915</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01176682887225902</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01426810842881387</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3141226024342529</v>
       </c>
       <c r="K23">
-        <v>1.077356202685166</v>
+        <v>0.1753878551593004</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8453424805342138</v>
       </c>
       <c r="M23">
-        <v>5.332873630979108</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4844698947196591</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.764820787320048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.007820041161594</v>
+      </c>
+      <c r="Q23">
+        <v>1.609416554288316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9743705475299578</v>
+        <v>3.121333473025174</v>
       </c>
       <c r="C24">
-        <v>0.09016482662019598</v>
+        <v>0.8862398494003685</v>
       </c>
       <c r="D24">
-        <v>0.07992129181199914</v>
+        <v>0.6045739450556198</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.604499423199286</v>
+        <v>0.9387104162343434</v>
       </c>
       <c r="G24">
-        <v>0.000787078813062094</v>
+        <v>0.4199514993728144</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007322297468424388</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01035930007911112</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2959078757490374</v>
       </c>
       <c r="K24">
-        <v>0.9278834181872924</v>
+        <v>0.1759338103211903</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7365795453294908</v>
       </c>
       <c r="M24">
-        <v>4.363906634828609</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5501484158621182</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.629148319757547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9636422428627611</v>
+      </c>
+      <c r="Q24">
+        <v>1.460370610360968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7992972528991231</v>
+        <v>2.567108666081197</v>
       </c>
       <c r="C25">
-        <v>0.08071703541525466</v>
+        <v>0.7386512675987831</v>
       </c>
       <c r="D25">
-        <v>0.06841468434827647</v>
+        <v>0.5103040772951317</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5365363009980442</v>
+        <v>0.8229380161829027</v>
       </c>
       <c r="G25">
-        <v>0.0007937916655978731</v>
+        <v>0.3659004490905886</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00356635021465912</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006843520564892458</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2775654932499094</v>
       </c>
       <c r="K25">
-        <v>0.7664748138945328</v>
+        <v>0.1778133195349518</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6196945057876064</v>
       </c>
       <c r="M25">
-        <v>3.418738257214102</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6260729006535719</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.499569806341867</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9189521539676093</v>
+      </c>
+      <c r="Q25">
+        <v>1.306896038372628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.166585336794185</v>
+        <v>2.12697491858745</v>
       </c>
       <c r="C2">
-        <v>0.6230046031029701</v>
+        <v>0.6487990595976783</v>
       </c>
       <c r="D2">
-        <v>0.4400418029988202</v>
+        <v>0.444186057185874</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7436452942747636</v>
+        <v>0.7289705036085223</v>
       </c>
       <c r="G2">
-        <v>0.3307015984354251</v>
+        <v>0.3012209829299195</v>
       </c>
       <c r="H2">
-        <v>0.001578753392584842</v>
+        <v>0.001479444218832615</v>
       </c>
       <c r="I2">
-        <v>0.004192944736044257</v>
+        <v>0.004227243301909489</v>
       </c>
       <c r="J2">
-        <v>0.2666056060084259</v>
+        <v>0.3038955154253884</v>
       </c>
       <c r="K2">
-        <v>0.1820889611482777</v>
+        <v>0.1734080742582318</v>
       </c>
       <c r="L2">
-        <v>0.5338690687943597</v>
+        <v>0.1151036867499169</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03090678228851473</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5325145051108819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8835895039446768</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.208948489973722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9034644315569835</v>
+      </c>
+      <c r="S2">
+        <v>1.173629096206497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.888490835336114</v>
+        <v>1.859630096605457</v>
       </c>
       <c r="C3">
-        <v>0.54917412909262</v>
+        <v>0.566397998238017</v>
       </c>
       <c r="D3">
-        <v>0.3932549615803396</v>
+        <v>0.3964992472617865</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6887952330274061</v>
+        <v>0.6775697797460722</v>
       </c>
       <c r="G3">
-        <v>0.3059085228788021</v>
+        <v>0.2790230762010921</v>
       </c>
       <c r="H3">
-        <v>0.000648920835628175</v>
+        <v>0.0006070879090260828</v>
       </c>
       <c r="I3">
-        <v>0.002954265275191048</v>
+        <v>0.003109935401057307</v>
       </c>
       <c r="J3">
-        <v>0.2588291269149963</v>
+        <v>0.2957058493665627</v>
       </c>
       <c r="K3">
-        <v>0.1844474676674306</v>
+        <v>0.1767227875383082</v>
       </c>
       <c r="L3">
-        <v>0.4756384373627895</v>
+        <v>0.1199203852142734</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02973135681739159</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4747738086643096</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.863751766437133</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.13983274658608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8767055066045089</v>
+      </c>
+      <c r="S3">
+        <v>1.112555626424637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.716938100152987</v>
+        <v>1.694432761321764</v>
       </c>
       <c r="C4">
-        <v>0.5040439832406207</v>
+        <v>0.5161784674089915</v>
       </c>
       <c r="D4">
-        <v>0.3645957145561738</v>
+        <v>0.367315836590663</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6555341865293087</v>
+        <v>0.6463092398967305</v>
       </c>
       <c r="G4">
-        <v>0.2909927509295258</v>
+        <v>0.2656827158316943</v>
       </c>
       <c r="H4">
-        <v>0.0002682752310445569</v>
+        <v>0.0002502220490212537</v>
       </c>
       <c r="I4">
-        <v>0.002314591138836697</v>
+        <v>0.002527704556707366</v>
       </c>
       <c r="J4">
-        <v>0.2542783122712038</v>
+        <v>0.29074223788637</v>
       </c>
       <c r="K4">
-        <v>0.1861172845629984</v>
+        <v>0.1789166998334224</v>
       </c>
       <c r="L4">
-        <v>0.4398432125184968</v>
+        <v>0.1230366268313894</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02947514929480466</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4392732996756763</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8522681936277507</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.098508001887708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8610692801021571</v>
+      </c>
+      <c r="S4">
+        <v>1.075845394578366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.645872182329271</v>
+        <v>1.625897554119547</v>
       </c>
       <c r="C5">
-        <v>0.4864614702374297</v>
+        <v>0.4965877307734559</v>
       </c>
       <c r="D5">
-        <v>0.35305322781754</v>
+        <v>0.3555686026410001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6416777309053856</v>
+        <v>0.6332401965045804</v>
       </c>
       <c r="G5">
-        <v>0.2846697575287322</v>
+        <v>0.2600028430646475</v>
       </c>
       <c r="H5">
-        <v>0.0001581746665673123</v>
+        <v>0.0001471322290889088</v>
       </c>
       <c r="I5">
-        <v>0.002139245387998034</v>
+        <v>0.002384588246247432</v>
       </c>
       <c r="J5">
-        <v>0.2523146538233618</v>
+        <v>0.2885663205638949</v>
       </c>
       <c r="K5">
-        <v>0.1866501568566932</v>
+        <v>0.1796549277026678</v>
       </c>
       <c r="L5">
-        <v>0.4252317514719124</v>
+        <v>0.1242350546780067</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02944965457726134</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.4247810504529923</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8482280812384104</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.080918394957763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8553773794597959</v>
+      </c>
+      <c r="S5">
+        <v>1.060065088722496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.632891686459089</v>
+        <v>1.613334541359734</v>
       </c>
       <c r="C6">
-        <v>0.4844797580512932</v>
+        <v>0.4943029534319692</v>
       </c>
       <c r="D6">
-        <v>0.3512872981661843</v>
+        <v>0.3537710894944865</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6388939773252531</v>
+        <v>0.6305864615179857</v>
       </c>
       <c r="G6">
-        <v>0.2832371775592151</v>
+        <v>0.2586843123333864</v>
       </c>
       <c r="H6">
-        <v>0.0001422824919072863</v>
+        <v>0.0001322642814585162</v>
       </c>
       <c r="I6">
-        <v>0.002188807898152234</v>
+        <v>0.002456416995791244</v>
       </c>
       <c r="J6">
-        <v>0.2517924159338563</v>
+        <v>0.2879999088471976</v>
       </c>
       <c r="K6">
-        <v>0.186496347948097</v>
+        <v>0.1795432268729353</v>
       </c>
       <c r="L6">
-        <v>0.4227925334795657</v>
+        <v>0.1243011363166175</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02940662108091097</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.4223619283886677</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8481443160897868</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.076775386915813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8550402305302214</v>
+      </c>
+      <c r="S6">
+        <v>1.056227344784133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.712780294248205</v>
+        <v>1.689207055116441</v>
       </c>
       <c r="C7">
-        <v>0.5063671528904763</v>
+        <v>0.517810620205978</v>
       </c>
       <c r="D7">
-        <v>0.3648502690809892</v>
+        <v>0.3678551221383799</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6540116673178602</v>
+        <v>0.6438911588243883</v>
       </c>
       <c r="G7">
-        <v>0.2898495794717419</v>
+        <v>0.2673985705835378</v>
       </c>
       <c r="H7">
-        <v>0.0002655677141909507</v>
+        <v>0.0002467868068309897</v>
       </c>
       <c r="I7">
-        <v>0.00250812070413442</v>
+        <v>0.002762606225159558</v>
       </c>
       <c r="J7">
-        <v>0.2537072314859472</v>
+        <v>0.286028478904484</v>
       </c>
       <c r="K7">
-        <v>0.1854543286849442</v>
+        <v>0.1780706772546949</v>
       </c>
       <c r="L7">
-        <v>0.439613736189159</v>
+        <v>0.1225769722175176</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02929376665208228</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.439017461727758</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8538023515768742</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.094887331647527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8632186777656585</v>
+      </c>
+      <c r="S7">
+        <v>1.070005394426119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.06658575571538</v>
+        <v>2.027040223157087</v>
       </c>
       <c r="C8">
-        <v>0.6009219632802001</v>
+        <v>0.6213435450985116</v>
       </c>
       <c r="D8">
-        <v>0.4244401258277577</v>
+        <v>0.4292245354177737</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7228710622302046</v>
+        <v>0.7063914564134492</v>
       </c>
       <c r="G8">
-        <v>0.3206825789277801</v>
+        <v>0.3016258592384133</v>
       </c>
       <c r="H8">
-        <v>0.001214301554196107</v>
+        <v>0.001131555205802215</v>
       </c>
       <c r="I8">
-        <v>0.003973925583488302</v>
+        <v>0.004096109875143306</v>
       </c>
       <c r="J8">
-        <v>0.2631567378063835</v>
+        <v>0.2868375014064455</v>
       </c>
       <c r="K8">
-        <v>0.1819725842447895</v>
+        <v>0.1729874994950293</v>
       </c>
       <c r="L8">
-        <v>0.5137549575874516</v>
+        <v>0.1159725631298105</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02998929150803065</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.5124793814723745</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8787636932652276</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.180394363840605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8983213722783034</v>
+      </c>
+      <c r="S8">
+        <v>1.140425771567692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.75994475213065</v>
+        <v>2.691035401148042</v>
       </c>
       <c r="C9">
-        <v>0.7835685693468122</v>
+        <v>0.825508201534376</v>
       </c>
       <c r="D9">
-        <v>0.541247546458095</v>
+        <v>0.5487046900054509</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8639893338232127</v>
+        <v>0.8373471532607795</v>
       </c>
       <c r="G9">
-        <v>0.3857547346963628</v>
+        <v>0.3628069548134079</v>
       </c>
       <c r="H9">
-        <v>0.004710576044475334</v>
+        <v>0.004403548858391892</v>
       </c>
       <c r="I9">
-        <v>0.007608684874326421</v>
+        <v>0.007257705271512371</v>
       </c>
       <c r="J9">
-        <v>0.2845558888553796</v>
+        <v>0.3045739199624791</v>
       </c>
       <c r="K9">
-        <v>0.1782029876418783</v>
+        <v>0.1662592293851048</v>
       </c>
       <c r="L9">
-        <v>0.6590857452672623</v>
+        <v>0.1052630623710638</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03557286600143605</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.656514312217368</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9305764843898743</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.363789573247317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9685308626897466</v>
+      </c>
+      <c r="S9">
+        <v>1.29969630090838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.254852462945792</v>
+        <v>3.15726195020153</v>
       </c>
       <c r="C10">
-        <v>0.9156041769607555</v>
+        <v>0.9689061682849172</v>
       </c>
       <c r="D10">
-        <v>0.6115500563234093</v>
+        <v>0.6225573490087299</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.954410319233034</v>
+        <v>0.9149740138017677</v>
       </c>
       <c r="G10">
-        <v>0.4295872536555549</v>
+        <v>0.4212603152870287</v>
       </c>
       <c r="H10">
-        <v>0.008318253696042444</v>
+        <v>0.007761366511790602</v>
       </c>
       <c r="I10">
-        <v>0.01108567992383236</v>
+        <v>0.01027059501132221</v>
       </c>
       <c r="J10">
-        <v>0.2986507804806848</v>
+        <v>0.2928916445199832</v>
       </c>
       <c r="K10">
-        <v>0.1747529144567217</v>
+        <v>0.1594516058238185</v>
       </c>
       <c r="L10">
-        <v>0.7325488775341</v>
+        <v>0.09718990795517612</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04083640518936882</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7288772599451363</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9784846330069712</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.486652280770443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.034062025804104</v>
+      </c>
+      <c r="S10">
+        <v>1.391209230029602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.392274051971583</v>
+        <v>3.277988254937782</v>
       </c>
       <c r="C11">
-        <v>0.9368401307832812</v>
+        <v>0.980772817168571</v>
       </c>
       <c r="D11">
-        <v>0.509066743357522</v>
+        <v>0.5219694565811608</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8633720075572455</v>
+        <v>0.8157659031550395</v>
       </c>
       <c r="G11">
-        <v>0.4011911886804143</v>
+        <v>0.4310216865837617</v>
       </c>
       <c r="H11">
-        <v>0.02627475829032022</v>
+        <v>0.02566568027168614</v>
       </c>
       <c r="I11">
-        <v>0.01253404627801302</v>
+        <v>0.01160483069147311</v>
       </c>
       <c r="J11">
-        <v>0.2813662196218019</v>
+        <v>0.2356198708459303</v>
       </c>
       <c r="K11">
-        <v>0.1585869461872527</v>
+        <v>0.1426977771749662</v>
       </c>
       <c r="L11">
-        <v>0.5052918697404607</v>
+        <v>0.08915009540422858</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03745393248379081</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5014934753154137</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.049967095811709</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.390407568624141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.119347314962766</v>
+      </c>
+      <c r="S11">
+        <v>1.272014539563571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.407626626249794</v>
+        <v>3.289607468794998</v>
       </c>
       <c r="C12">
-        <v>0.9222849175895362</v>
+        <v>0.9585778397191405</v>
       </c>
       <c r="D12">
-        <v>0.4162399618381443</v>
+        <v>0.4286146903110932</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7729841089879841</v>
+        <v>0.7250758688143151</v>
       </c>
       <c r="G12">
-        <v>0.3701022925378652</v>
+        <v>0.4170869311924008</v>
       </c>
       <c r="H12">
-        <v>0.06414781336136599</v>
+        <v>0.06355310448547158</v>
       </c>
       <c r="I12">
-        <v>0.01267160080953555</v>
+        <v>0.01168906576754747</v>
       </c>
       <c r="J12">
-        <v>0.264701183329521</v>
+        <v>0.2070764359379496</v>
       </c>
       <c r="K12">
-        <v>0.1470298515691688</v>
+        <v>0.1321120383544372</v>
       </c>
       <c r="L12">
-        <v>0.3390661262358208</v>
+        <v>0.08495183343071488</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03407843600223082</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3354745778913752</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.099703346833238</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.289646772962897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.174545447299906</v>
+      </c>
+      <c r="S12">
+        <v>1.167701490120209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.324785463079365</v>
+        <v>3.215896505626858</v>
       </c>
       <c r="C13">
-        <v>0.8835769959933373</v>
+        <v>0.9152008349111895</v>
       </c>
       <c r="D13">
-        <v>0.3265699215750857</v>
+        <v>0.3363796209815035</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6761243430062009</v>
+        <v>0.6351010243978266</v>
       </c>
       <c r="G13">
-        <v>0.3335234307352124</v>
+        <v>0.3755372692672267</v>
       </c>
       <c r="H13">
-        <v>0.1188740834209199</v>
+        <v>0.1183484859944741</v>
       </c>
       <c r="I13">
-        <v>0.01209116821679146</v>
+        <v>0.01119361080370318</v>
       </c>
       <c r="J13">
-        <v>0.2466839050619427</v>
+        <v>0.1991714862394929</v>
       </c>
       <c r="K13">
-        <v>0.1372457701383496</v>
+        <v>0.1248101032843003</v>
       </c>
       <c r="L13">
-        <v>0.2104828237824563</v>
+        <v>0.08276935176582967</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03040946248641951</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2073371515825002</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.13731233656668</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.174337490256306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.209086398388436</v>
+      </c>
+      <c r="S13">
+        <v>1.06739469289991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.221639989473715</v>
+        <v>3.124701076558381</v>
       </c>
       <c r="C14">
-        <v>0.8465388433934606</v>
+        <v>0.8761155850054649</v>
       </c>
       <c r="D14">
-        <v>0.2670811833581297</v>
+        <v>0.2745018893981097</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6062009110677522</v>
+        <v>0.5725540660491788</v>
       </c>
       <c r="G14">
-        <v>0.30550008459889</v>
+        <v>0.3354918344456479</v>
       </c>
       <c r="H14">
-        <v>0.1674562182783461</v>
+        <v>0.1669970351414634</v>
       </c>
       <c r="I14">
-        <v>0.01144848684256594</v>
+        <v>0.01068306328887481</v>
       </c>
       <c r="J14">
-        <v>0.2334545602788296</v>
+        <v>0.201190240451858</v>
       </c>
       <c r="K14">
-        <v>0.1311547834123434</v>
+        <v>0.1209737171133689</v>
       </c>
       <c r="L14">
-        <v>0.1435323716783401</v>
+        <v>0.0819724936338817</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02773911495857995</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1407698279278264</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.158666702301943</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.087166334372284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.224309833888896</v>
+      </c>
+      <c r="S14">
+        <v>0.9978259116748944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.174592708524017</v>
+        <v>3.082995068603509</v>
       </c>
       <c r="C15">
-        <v>0.8334827018525175</v>
+        <v>0.8630317396033149</v>
       </c>
       <c r="D15">
-        <v>0.2523180322372838</v>
+        <v>0.2589079660748439</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5870957924614686</v>
+        <v>0.5563548523286883</v>
       </c>
       <c r="G15">
-        <v>0.2971522939466951</v>
+        <v>0.3207504706440005</v>
       </c>
       <c r="H15">
-        <v>0.1796724943126691</v>
+        <v>0.1792412882539338</v>
       </c>
       <c r="I15">
-        <v>0.01123767803011066</v>
+        <v>0.01055459416178106</v>
       </c>
       <c r="J15">
-        <v>0.2297818972798353</v>
+        <v>0.2048753565455144</v>
       </c>
       <c r="K15">
-        <v>0.1298232996500666</v>
+        <v>0.1204368923633137</v>
       </c>
       <c r="L15">
-        <v>0.1300596272053021</v>
+        <v>0.08204927061302492</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02696220807073146</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1274324751718581</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.161678475725623</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.06174607590043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.224146298463836</v>
+      </c>
+      <c r="S15">
+        <v>0.9797803578194362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.978430098678359</v>
+        <v>2.907590667281966</v>
       </c>
       <c r="C16">
-        <v>0.786995350055804</v>
+        <v>0.8195459794391979</v>
       </c>
       <c r="D16">
-        <v>0.2430392660434393</v>
+        <v>0.2472916880890494</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5691497853264025</v>
+        <v>0.5481407470915514</v>
       </c>
       <c r="G16">
-        <v>0.2856095718061056</v>
+        <v>0.2809413258880866</v>
       </c>
       <c r="H16">
-        <v>0.165676290004356</v>
+        <v>0.1653604973548113</v>
       </c>
       <c r="I16">
-        <v>0.009946455944129795</v>
+        <v>0.009536493871726393</v>
       </c>
       <c r="J16">
-        <v>0.2271673325272801</v>
+        <v>0.2349576532673581</v>
       </c>
       <c r="K16">
-        <v>0.1327815232430769</v>
+        <v>0.1254241067936395</v>
       </c>
       <c r="L16">
-        <v>0.1286286436451221</v>
+        <v>0.08517814294738724</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02622799085425065</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1264293748849852</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.131810094387248</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.031626414562126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.179894626663568</v>
+      </c>
+      <c r="S16">
+        <v>0.9760443449989253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.882623313483862</v>
+        <v>2.819534750390062</v>
       </c>
       <c r="C17">
-        <v>0.7710465061941818</v>
+        <v>0.8058689697833472</v>
       </c>
       <c r="D17">
-        <v>0.2663070563779542</v>
+        <v>0.2700223127501999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5918473306135752</v>
+        <v>0.5738776991273014</v>
       </c>
       <c r="G17">
-        <v>0.2914911887844269</v>
+        <v>0.2747742730162699</v>
       </c>
       <c r="H17">
-        <v>0.1273212354198137</v>
+        <v>0.1270538878863192</v>
       </c>
       <c r="I17">
-        <v>0.009324030832297936</v>
+        <v>0.009045676096637756</v>
       </c>
       <c r="J17">
-        <v>0.232157962795128</v>
+        <v>0.2547471753698645</v>
       </c>
       <c r="K17">
-        <v>0.1382617676919455</v>
+        <v>0.1312049354437921</v>
       </c>
       <c r="L17">
-        <v>0.1587872235494459</v>
+        <v>0.08819231056569876</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02692524910594329</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1567235967822853</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.097995353270576</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.05444342565545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.139924357775286</v>
+      </c>
+      <c r="S17">
+        <v>1.007785844019452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.864457837660154</v>
+        <v>2.801607742293413</v>
       </c>
       <c r="C18">
-        <v>0.7773522626747535</v>
+        <v>0.8157020134387096</v>
       </c>
       <c r="D18">
-        <v>0.3248305218229177</v>
+        <v>0.32902469231054</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6550746432987111</v>
+        <v>0.636423194301436</v>
       </c>
       <c r="G18">
-        <v>0.3141348729487987</v>
+        <v>0.2910329110536196</v>
       </c>
       <c r="H18">
-        <v>0.07457377627362405</v>
+        <v>0.07431062104295449</v>
       </c>
       <c r="I18">
-        <v>0.008941300422443454</v>
+        <v>0.008654311510139401</v>
       </c>
       <c r="J18">
-        <v>0.2447313297964797</v>
+        <v>0.2733223781503966</v>
       </c>
       <c r="K18">
-        <v>0.1471461648972561</v>
+        <v>0.1392376882242026</v>
       </c>
       <c r="L18">
-        <v>0.2399287011810003</v>
+        <v>0.09179740426258043</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02915873922405332</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2377872875700788</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.055995543584132</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.128729118635391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.096110920406119</v>
+      </c>
+      <c r="S18">
+        <v>1.081483905544246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.90365029601486</v>
+        <v>2.836106207671378</v>
       </c>
       <c r="C19">
-        <v>0.8061257952980156</v>
+        <v>0.849692412495358</v>
       </c>
       <c r="D19">
-        <v>0.415802588381581</v>
+        <v>0.4212105012681491</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7480578993529576</v>
+        <v>0.7262378120288489</v>
       </c>
       <c r="G19">
-        <v>0.3477420996857035</v>
+        <v>0.3208833340132884</v>
       </c>
       <c r="H19">
-        <v>0.03017736799081661</v>
+        <v>0.02987700641670443</v>
       </c>
       <c r="I19">
-        <v>0.009262880408901886</v>
+        <v>0.008972276704636961</v>
       </c>
       <c r="J19">
-        <v>0.2618941646927624</v>
+        <v>0.2914129947583035</v>
       </c>
       <c r="K19">
-        <v>0.1575237283705668</v>
+        <v>0.1480278702193303</v>
       </c>
       <c r="L19">
-        <v>0.3872425546899336</v>
+        <v>0.09539425826755554</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0322816548997924</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3848375294860631</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.015248481218947</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.235919314203784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.056358467283189</v>
+      </c>
+      <c r="S19">
+        <v>1.182033207446466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.114498545888353</v>
+        <v>3.028783490180388</v>
       </c>
       <c r="C20">
-        <v>0.8888523873407337</v>
+        <v>0.9422516185794052</v>
       </c>
       <c r="D20">
-        <v>0.5936679383141836</v>
+        <v>0.6027028135690387</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9256697966729206</v>
+        <v>0.8930131180213152</v>
       </c>
       <c r="G20">
-        <v>0.4143967853291457</v>
+        <v>0.3916900133615542</v>
       </c>
       <c r="H20">
-        <v>0.007248768022094509</v>
+        <v>0.006778457334858601</v>
       </c>
       <c r="I20">
-        <v>0.0107550092506985</v>
+        <v>0.01025593590927087</v>
       </c>
       <c r="J20">
-        <v>0.293059595292064</v>
+        <v>0.3079695842191086</v>
       </c>
       <c r="K20">
-        <v>0.1734623778428173</v>
+        <v>0.1599743166083449</v>
       </c>
       <c r="L20">
-        <v>0.7117502810755809</v>
+        <v>0.09879014159995414</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03884736037711001</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7084714217194232</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9712344381722602</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.442631980897318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.020106391044195</v>
+      </c>
+      <c r="S20">
+        <v>1.364069846049688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.509625546182178</v>
+        <v>3.378102466320854</v>
       </c>
       <c r="C21">
-        <v>0.9967204295298302</v>
+        <v>1.045304149757897</v>
       </c>
       <c r="D21">
-        <v>0.672915653512689</v>
+        <v>0.6908241742602286</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.02078326272823</v>
+        <v>0.9594676036565915</v>
       </c>
       <c r="G21">
-        <v>0.4579975218915564</v>
+        <v>0.5048560623857554</v>
       </c>
       <c r="H21">
-        <v>0.01065481419061058</v>
+        <v>0.009862588750550166</v>
       </c>
       <c r="I21">
-        <v>0.01369013892517756</v>
+        <v>0.01262770899002863</v>
       </c>
       <c r="J21">
-        <v>0.3088666476580784</v>
+        <v>0.2381665249059992</v>
       </c>
       <c r="K21">
-        <v>0.1742634534456364</v>
+        <v>0.1538502602780625</v>
       </c>
       <c r="L21">
-        <v>0.820157964678998</v>
+        <v>0.09262739029715128</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04294436554283898</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8154288245253412</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.000524918553495</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.568486428033907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.076019139270159</v>
+      </c>
+      <c r="S21">
+        <v>1.419787359233851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.766887875297812</v>
+        <v>3.603317528728553</v>
       </c>
       <c r="C22">
-        <v>1.061646892258466</v>
+        <v>1.105259737982237</v>
       </c>
       <c r="D22">
-        <v>0.7160222690132514</v>
+        <v>0.7402703346564579</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.077565287768351</v>
+        <v>0.9959630327406899</v>
       </c>
       <c r="G22">
-        <v>0.4855880231674945</v>
+        <v>0.5873830792675392</v>
       </c>
       <c r="H22">
-        <v>0.01308151442944949</v>
+        <v>0.01205137663792666</v>
       </c>
       <c r="I22">
-        <v>0.01549852745233604</v>
+        <v>0.01395882500496892</v>
       </c>
       <c r="J22">
-        <v>0.3188325129822971</v>
+        <v>0.1970034966538989</v>
       </c>
       <c r="K22">
-        <v>0.1750836362501786</v>
+        <v>0.1498161214904279</v>
       </c>
       <c r="L22">
-        <v>0.8741247313637359</v>
+        <v>0.0887923496041445</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0458323467814381</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8684507985179977</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.020794134405065</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.648047206112437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.115021238666316</v>
+      </c>
+      <c r="S22">
+        <v>1.449662323096589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.63354334514753</v>
+        <v>3.49016201966657</v>
       </c>
       <c r="C23">
-        <v>1.023823858403517</v>
+        <v>1.072076006959094</v>
       </c>
       <c r="D23">
-        <v>0.6925006250402816</v>
+        <v>0.7125189161021979</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.048776703223453</v>
+        <v>0.9804539357244551</v>
       </c>
       <c r="G23">
-        <v>0.4720684583993915</v>
+        <v>0.5354565504369901</v>
       </c>
       <c r="H23">
-        <v>0.01176682887225902</v>
+        <v>0.01087629393886616</v>
       </c>
       <c r="I23">
-        <v>0.01426810842881387</v>
+        <v>0.0129367066172108</v>
       </c>
       <c r="J23">
-        <v>0.3141226024342529</v>
+        <v>0.2259534471360851</v>
       </c>
       <c r="K23">
-        <v>0.1753878551593004</v>
+        <v>0.1531413150378356</v>
       </c>
       <c r="L23">
-        <v>0.8453424805342138</v>
+        <v>0.09119526023929758</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04479351105484497</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.840231221555058</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.007820041161594</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.609416554288316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.090028982186809</v>
+      </c>
+      <c r="S23">
+        <v>1.443441929821148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.121333473025174</v>
+        <v>3.035358285171014</v>
       </c>
       <c r="C24">
-        <v>0.8862398494003685</v>
+        <v>0.940003185202329</v>
       </c>
       <c r="D24">
-        <v>0.6045739450556198</v>
+        <v>0.6137024368396737</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9387104162343434</v>
+        <v>0.905786176594745</v>
       </c>
       <c r="G24">
-        <v>0.4199514993728144</v>
+        <v>0.3964179598390558</v>
       </c>
       <c r="H24">
-        <v>0.007322297468424388</v>
+        <v>0.006845215450142328</v>
       </c>
       <c r="I24">
-        <v>0.01035930007911112</v>
+        <v>0.009757039307495496</v>
       </c>
       <c r="J24">
-        <v>0.2959078757490374</v>
+        <v>0.311397917210499</v>
       </c>
       <c r="K24">
-        <v>0.1759338103211903</v>
+        <v>0.1621835248066965</v>
       </c>
       <c r="L24">
-        <v>0.7365795453294908</v>
+        <v>0.09967406542731894</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03963745023124154</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7332655962041201</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9636422428627611</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.460370610360968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.012188287015306</v>
+      </c>
+      <c r="S24">
+        <v>1.381241539883689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.567108666081197</v>
+        <v>2.508025069515782</v>
       </c>
       <c r="C25">
-        <v>0.7386512675987831</v>
+        <v>0.7759081855267311</v>
       </c>
       <c r="D25">
-        <v>0.5103040772951317</v>
+        <v>0.5166146792192023</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8229380161829027</v>
+        <v>0.8004908214727777</v>
       </c>
       <c r="G25">
-        <v>0.3659004490905886</v>
+        <v>0.3399289599426254</v>
       </c>
       <c r="H25">
-        <v>0.00356635021465912</v>
+        <v>0.003336773998285691</v>
       </c>
       <c r="I25">
-        <v>0.006843520564892458</v>
+        <v>0.006732481057943218</v>
       </c>
       <c r="J25">
-        <v>0.2775654932499094</v>
+        <v>0.3044534918467008</v>
       </c>
       <c r="K25">
-        <v>0.1778133195349518</v>
+        <v>0.1671095955799977</v>
       </c>
       <c r="L25">
-        <v>0.6196945057876064</v>
+        <v>0.1076812349584557</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03337619197497688</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6175243612193668</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9189521539676093</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.306896038372628</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9511201779365166</v>
+      </c>
+      <c r="S25">
+        <v>1.25302472038436</v>
       </c>
     </row>
   </sheetData>
